--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/PHI/1.67/PHI accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/PHI/1.67/PHI accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\PHI\1.67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F6A39-4A98-4922-A6CF-52AAEAC697DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522B5644-C035-4875-8CF3-6AC888C1395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1493,15 +1493,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
   </si>
   <si>
-    <t>2024-01-25T09:13:41.888Z</t>
-  </si>
-  <si>
-    <t>154fc8a3b269ee36</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.1c62eb2861500bbb89bbfb3afce9839ea5e79f68db77b96066f4720e4b51e5e9.240cc37af9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>L'applicativo gestisce il comune di residenza. Per il caso di test è stata forzata la mancata valorizzazione.</t>
   </si>
   <si>
@@ -4732,15 +4723,6 @@
 </t>
   </si>
   <si>
-    <t>2024-01-23T09:54:28.363Z</t>
-  </si>
-  <si>
-    <t>f19b05a0a2f84043</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.5f041cfbecec5b10c587a3a136cdd97d80e23d9ad49c68046bfa46e85d79d76a.c91eeb3641^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT0</t>
   </si>
   <si>
@@ -4928,6 +4910,24 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.4.1.1.5f041cfbecec5b10c587a3a136cdd97d80e23d9ad49c68046bfa46e85d79d76a.05ce64a675^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-30T16:56:54.135Z</t>
+  </si>
+  <si>
+    <t>8d6428b701ccbeea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.5f041cfbecec5b10c587a3a136cdd97d80e23d9ad49c68046bfa46e85d79d76a.1d971544e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.4.1.1.1c62eb2861500bbb89bbfb3afce9839ea5e79f68db77b96066f4720e4b51e5e9.ed8b04408a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2024-01-30T17:00:27.189Z</t>
+  </si>
+  <si>
+    <t>45efd99d86d38659</t>
   </si>
 </sst>
 </file>
@@ -5261,7 +5261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5360,6 +5360,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -5377,13 +5381,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7841,14 +7838,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D385" sqref="D385"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7886,12 +7882,12 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="39"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -7909,14 +7905,14 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="45" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="37"/>
+      <c r="D3" s="39"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -7934,12 +7930,12 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="45" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="4"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -7958,12 +7954,12 @@
       <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="39"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -7981,8 +7977,8 @@
       <c r="T5" s="15"/>
     </row>
     <row r="6" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="16"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -8099,7 +8095,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:20" ht="14.25" customHeight="1">
       <c r="A10" s="20">
         <v>1</v>
       </c>
@@ -8133,7 +8129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="11" spans="1:20" ht="14.25" customHeight="1">
       <c r="A11" s="20">
         <v>2</v>
       </c>
@@ -8167,7 +8163,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="12" spans="1:20" ht="14.25" customHeight="1">
       <c r="A12" s="20">
         <v>3</v>
       </c>
@@ -8201,7 +8197,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="13" spans="1:20" ht="14.25" customHeight="1">
       <c r="A13" s="20">
         <v>4</v>
       </c>
@@ -8235,7 +8231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" ht="14.25" customHeight="1">
       <c r="A14" s="20">
         <v>5</v>
       </c>
@@ -8429,7 +8425,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="19" spans="1:20" ht="14.25" customHeight="1">
       <c r="A19" s="20">
         <v>11</v>
       </c>
@@ -8463,7 +8459,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="20" spans="1:20" ht="14.25" customHeight="1">
       <c r="A20" s="20">
         <v>12</v>
       </c>
@@ -8497,7 +8493,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:20" ht="14.25" customHeight="1">
       <c r="A21" s="20">
         <v>13</v>
       </c>
@@ -8531,7 +8527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:20" ht="14.25" customHeight="1">
       <c r="A22" s="20">
         <v>14</v>
       </c>
@@ -8565,7 +8561,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="23" spans="1:20" ht="14.25" customHeight="1">
       <c r="A23" s="20">
         <v>16</v>
       </c>
@@ -8599,7 +8595,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" spans="1:20" ht="14.25" customHeight="1">
       <c r="A24" s="20">
         <v>17</v>
       </c>
@@ -8633,7 +8629,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:20" ht="14.25" customHeight="1">
       <c r="A25" s="20">
         <v>18</v>
       </c>
@@ -8667,7 +8663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:20" ht="14.25" customHeight="1">
       <c r="A26" s="20">
         <v>19</v>
       </c>
@@ -8701,7 +8697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:20" ht="14.25" customHeight="1">
       <c r="A27" s="20">
         <v>20</v>
       </c>
@@ -8735,7 +8731,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:20" ht="14.25" customHeight="1">
       <c r="A28" s="20">
         <v>21</v>
       </c>
@@ -8769,7 +8765,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" spans="1:20" ht="14.25" customHeight="1">
       <c r="A29" s="20">
         <v>22</v>
       </c>
@@ -8803,7 +8799,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:20" ht="14.25" customHeight="1">
       <c r="A30" s="20">
         <v>23</v>
       </c>
@@ -8837,7 +8833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:20" ht="14.25" customHeight="1">
       <c r="A31" s="20">
         <v>24</v>
       </c>
@@ -8871,7 +8867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:20" ht="14.25" customHeight="1">
       <c r="A32" s="20">
         <v>25</v>
       </c>
@@ -8905,7 +8901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:20" ht="14.25" customHeight="1">
       <c r="A33" s="20">
         <v>26</v>
       </c>
@@ -8939,7 +8935,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="34" spans="1:20" ht="14.25" customHeight="1">
       <c r="A34" s="20">
         <v>27</v>
       </c>
@@ -8973,7 +8969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:20" ht="14.25" customHeight="1">
       <c r="A35" s="20">
         <v>28</v>
       </c>
@@ -9063,7 +9059,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:20" ht="14.25" customHeight="1">
       <c r="A37" s="20">
         <v>30</v>
       </c>
@@ -9097,7 +9093,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="38" spans="1:20" ht="14.25" customHeight="1">
       <c r="A38" s="20">
         <v>31</v>
       </c>
@@ -9187,7 +9183,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:20" ht="14.25" customHeight="1">
       <c r="A40" s="20">
         <v>33</v>
       </c>
@@ -9221,7 +9217,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:20" ht="14.25" customHeight="1">
       <c r="A41" s="20">
         <v>34</v>
       </c>
@@ -9255,7 +9251,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="42" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:20" ht="14.25" customHeight="1">
       <c r="A42" s="20">
         <v>35</v>
       </c>
@@ -9289,7 +9285,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:20" ht="14.25" customHeight="1">
       <c r="A43" s="20">
         <v>36</v>
       </c>
@@ -9379,7 +9375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="45" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:20" ht="14.25" customHeight="1">
       <c r="A45" s="20">
         <v>38</v>
       </c>
@@ -9413,7 +9409,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" spans="1:20" ht="14.25" customHeight="1">
       <c r="A46" s="20">
         <v>39</v>
       </c>
@@ -9503,7 +9499,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:20" ht="14.25" customHeight="1">
       <c r="A48" s="20">
         <v>41</v>
       </c>
@@ -9537,7 +9533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="49" spans="1:20" ht="14.25" customHeight="1">
       <c r="A49" s="20">
         <v>42</v>
       </c>
@@ -9571,7 +9567,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="50" spans="1:20" ht="14.25" customHeight="1">
       <c r="A50" s="20">
         <v>43</v>
       </c>
@@ -9605,7 +9601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="51" spans="1:20" ht="14.25" customHeight="1">
       <c r="A51" s="20">
         <v>44</v>
       </c>
@@ -9679,7 +9675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="53" spans="1:20" ht="14.25" customHeight="1">
       <c r="A53" s="20">
         <v>46</v>
       </c>
@@ -9715,7 +9711,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:20" ht="14.25" customHeight="1">
       <c r="A54" s="20">
         <v>47</v>
       </c>
@@ -9789,7 +9785,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="56" spans="1:20" ht="14.25" customHeight="1">
       <c r="A56" s="20">
         <v>49</v>
       </c>
@@ -9825,7 +9821,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="57" spans="1:20" ht="14.25" customHeight="1">
       <c r="A57" s="20">
         <v>50</v>
       </c>
@@ -9861,7 +9857,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="58" spans="1:20" ht="14.25" customHeight="1">
       <c r="A58" s="20">
         <v>51</v>
       </c>
@@ -9897,7 +9893,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="59" spans="1:20" ht="14.25" customHeight="1">
       <c r="A59" s="20">
         <v>52</v>
       </c>
@@ -9931,7 +9927,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="60" spans="1:20" ht="14.25" customHeight="1">
       <c r="A60" s="20">
         <v>53</v>
       </c>
@@ -9965,7 +9961,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="61" spans="1:20" ht="14.25" customHeight="1">
       <c r="A61" s="20">
         <v>54</v>
       </c>
@@ -9999,7 +9995,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="62" spans="1:20" ht="14.25" customHeight="1">
       <c r="A62" s="20">
         <v>55</v>
       </c>
@@ -10033,7 +10029,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" spans="1:20" ht="14.25" customHeight="1">
       <c r="A63" s="20">
         <v>56</v>
       </c>
@@ -10067,7 +10063,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="64" spans="1:20" ht="14.25" customHeight="1">
       <c r="A64" s="20">
         <v>57</v>
       </c>
@@ -10101,7 +10097,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="65" spans="1:20" ht="14.25" customHeight="1">
       <c r="A65" s="20">
         <v>58</v>
       </c>
@@ -10135,7 +10131,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="66" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="66" spans="1:20" ht="14.25" customHeight="1">
       <c r="A66" s="20">
         <v>59</v>
       </c>
@@ -10169,7 +10165,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="67" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="67" spans="1:20" ht="14.25" customHeight="1">
       <c r="A67" s="20">
         <v>60</v>
       </c>
@@ -10203,7 +10199,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="68" spans="1:20" ht="14.25" customHeight="1">
       <c r="A68" s="20">
         <v>61</v>
       </c>
@@ -10237,7 +10233,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="69" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="69" spans="1:20" ht="14.25" customHeight="1">
       <c r="A69" s="20">
         <v>62</v>
       </c>
@@ -10351,7 +10347,7 @@
         <v>70</v>
       </c>
       <c r="K71" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L71" s="25"/>
       <c r="M71" s="25"/>
@@ -10438,16 +10434,16 @@
         <v>209</v>
       </c>
       <c r="F73" s="23">
-        <v>45316</v>
+        <v>45321</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>210</v>
+        <v>960</v>
       </c>
       <c r="H73" s="29" t="s">
-        <v>211</v>
+        <v>961</v>
       </c>
       <c r="I73" s="29" t="s">
-        <v>212</v>
+        <v>959</v>
       </c>
       <c r="J73" s="25" t="s">
         <v>66</v>
@@ -10471,7 +10467,7 @@
       </c>
       <c r="R73" s="26"/>
       <c r="S73" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T73" s="28" t="s">
         <v>116</v>
@@ -10488,22 +10484,22 @@
         <v>60</v>
       </c>
       <c r="D74" s="21" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F74" s="23">
         <v>45316</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H74" s="29" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I74" s="29" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J74" s="25" t="s">
         <v>66</v>
@@ -10527,7 +10523,7 @@
       </c>
       <c r="R74" s="26"/>
       <c r="S74" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="T74" s="28" t="s">
         <v>116</v>
@@ -10544,22 +10540,22 @@
         <v>60</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F75" s="23">
         <v>45316</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H75" s="29" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="I75" s="29" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J75" s="25" t="s">
         <v>66</v>
@@ -10583,7 +10579,7 @@
       </c>
       <c r="R75" s="26"/>
       <c r="S75" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T75" s="28" t="s">
         <v>116</v>
@@ -10600,22 +10596,22 @@
         <v>60</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F76" s="23">
         <v>45316</v>
       </c>
       <c r="G76" s="29" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H76" s="29" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I76" s="29" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="J76" s="25" t="s">
         <v>66</v>
@@ -10639,7 +10635,7 @@
       </c>
       <c r="R76" s="26"/>
       <c r="S76" s="27" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="T76" s="28" t="s">
         <v>116</v>
@@ -10656,22 +10652,22 @@
         <v>60</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F77" s="23">
         <v>45314</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H77" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I77" s="29" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J77" s="25" t="s">
         <v>66</v>
@@ -10695,7 +10691,7 @@
       </c>
       <c r="R77" s="26"/>
       <c r="S77" s="27" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="T77" s="28" t="s">
         <v>116</v>
@@ -10712,10 +10708,10 @@
         <v>60</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F78" s="23"/>
       <c r="G78" s="24"/>
@@ -10725,7 +10721,7 @@
         <v>70</v>
       </c>
       <c r="K78" s="25" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
@@ -10750,10 +10746,10 @@
         <v>60</v>
       </c>
       <c r="D79" s="21" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F79" s="23"/>
       <c r="G79" s="24"/>
@@ -10763,7 +10759,7 @@
         <v>70</v>
       </c>
       <c r="K79" s="25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L79" s="25"/>
       <c r="M79" s="25"/>
@@ -10788,22 +10784,22 @@
         <v>60</v>
       </c>
       <c r="D80" s="21" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F80" s="23">
         <v>45316</v>
       </c>
       <c r="G80" s="29" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H80" s="29" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I80" s="29" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="J80" s="25" t="s">
         <v>66</v>
@@ -10827,7 +10823,7 @@
       </c>
       <c r="R80" s="26"/>
       <c r="S80" s="27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="T80" s="28" t="s">
         <v>116</v>
@@ -10844,10 +10840,10 @@
         <v>60</v>
       </c>
       <c r="D81" s="21" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F81" s="23"/>
       <c r="G81" s="24"/>
@@ -10857,7 +10853,7 @@
         <v>70</v>
       </c>
       <c r="K81" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L81" s="25"/>
       <c r="M81" s="25"/>
@@ -10871,7 +10867,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="82" spans="1:20" ht="14.25" customHeight="1">
       <c r="A82" s="20">
         <v>75</v>
       </c>
@@ -10882,10 +10878,10 @@
         <v>78</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F82" s="23"/>
       <c r="G82" s="24"/>
@@ -10905,7 +10901,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="83" spans="1:20" ht="14.25" customHeight="1">
       <c r="A83" s="20">
         <v>76</v>
       </c>
@@ -10916,10 +10912,10 @@
         <v>78</v>
       </c>
       <c r="D83" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F83" s="23"/>
       <c r="G83" s="24"/>
@@ -10939,7 +10935,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="84" spans="1:20" ht="14.25" customHeight="1">
       <c r="A84" s="20">
         <v>77</v>
       </c>
@@ -10950,10 +10946,10 @@
         <v>78</v>
       </c>
       <c r="D84" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F84" s="23"/>
       <c r="G84" s="24"/>
@@ -10973,7 +10969,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="85" spans="1:20" ht="14.25" customHeight="1">
       <c r="A85" s="20">
         <v>78</v>
       </c>
@@ -10984,10 +10980,10 @@
         <v>78</v>
       </c>
       <c r="D85" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F85" s="23"/>
       <c r="G85" s="24"/>
@@ -11007,7 +11003,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="86" spans="1:20" ht="14.25" customHeight="1">
       <c r="A86" s="20">
         <v>79</v>
       </c>
@@ -11018,10 +11014,10 @@
         <v>78</v>
       </c>
       <c r="D86" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F86" s="23"/>
       <c r="G86" s="24"/>
@@ -11041,7 +11037,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="87" spans="1:20" ht="14.25" customHeight="1">
       <c r="A87" s="20">
         <v>80</v>
       </c>
@@ -11052,10 +11048,10 @@
         <v>78</v>
       </c>
       <c r="D87" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F87" s="23"/>
       <c r="G87" s="24"/>
@@ -11075,7 +11071,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="88" spans="1:20" ht="14.25" customHeight="1">
       <c r="A88" s="20">
         <v>81</v>
       </c>
@@ -11086,10 +11082,10 @@
         <v>78</v>
       </c>
       <c r="D88" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F88" s="23"/>
       <c r="G88" s="24"/>
@@ -11109,7 +11105,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="89" spans="1:20" ht="14.25" customHeight="1">
       <c r="A89" s="20">
         <v>82</v>
       </c>
@@ -11120,10 +11116,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F89" s="23"/>
       <c r="G89" s="24"/>
@@ -11143,7 +11139,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="90" spans="1:20" ht="14.25" customHeight="1">
       <c r="A90" s="20">
         <v>83</v>
       </c>
@@ -11154,10 +11150,10 @@
         <v>78</v>
       </c>
       <c r="D90" s="21" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F90" s="23"/>
       <c r="G90" s="24"/>
@@ -11177,7 +11173,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="91" spans="1:20" ht="14.25" customHeight="1">
       <c r="A91" s="20">
         <v>84</v>
       </c>
@@ -11188,10 +11184,10 @@
         <v>78</v>
       </c>
       <c r="D91" s="21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F91" s="23"/>
       <c r="G91" s="24"/>
@@ -11211,7 +11207,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="92" spans="1:20" ht="14.25" customHeight="1">
       <c r="A92" s="20">
         <v>85</v>
       </c>
@@ -11222,10 +11218,10 @@
         <v>78</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F92" s="23"/>
       <c r="G92" s="24"/>
@@ -11245,7 +11241,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="93" spans="1:20" ht="14.25" customHeight="1">
       <c r="A93" s="20">
         <v>86</v>
       </c>
@@ -11256,10 +11252,10 @@
         <v>78</v>
       </c>
       <c r="D93" s="21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F93" s="23"/>
       <c r="G93" s="24"/>
@@ -11279,7 +11275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="94" spans="1:20" ht="14.25" customHeight="1">
       <c r="A94" s="20">
         <v>87</v>
       </c>
@@ -11290,10 +11286,10 @@
         <v>78</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F94" s="23"/>
       <c r="G94" s="24"/>
@@ -11313,7 +11309,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="95" spans="1:20" ht="14.25" customHeight="1">
       <c r="A95" s="20">
         <v>88</v>
       </c>
@@ -11324,10 +11320,10 @@
         <v>78</v>
       </c>
       <c r="D95" s="21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F95" s="23"/>
       <c r="G95" s="24"/>
@@ -11347,7 +11343,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="96" spans="1:20" ht="14.25" customHeight="1">
       <c r="A96" s="20">
         <v>89</v>
       </c>
@@ -11358,10 +11354,10 @@
         <v>78</v>
       </c>
       <c r="D96" s="21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F96" s="23"/>
       <c r="G96" s="24"/>
@@ -11381,7 +11377,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="97" spans="1:20" ht="14.25" customHeight="1">
       <c r="A97" s="20">
         <v>90</v>
       </c>
@@ -11392,10 +11388,10 @@
         <v>78</v>
       </c>
       <c r="D97" s="21" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
@@ -11415,7 +11411,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="98" spans="1:20" ht="14.25" customHeight="1">
       <c r="A98" s="20">
         <v>91</v>
       </c>
@@ -11426,10 +11422,10 @@
         <v>78</v>
       </c>
       <c r="D98" s="21" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F98" s="23"/>
       <c r="G98" s="24"/>
@@ -11449,7 +11445,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="99" spans="1:20" ht="14.25" customHeight="1">
       <c r="A99" s="20">
         <v>92</v>
       </c>
@@ -11460,10 +11456,10 @@
         <v>78</v>
       </c>
       <c r="D99" s="21" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F99" s="23"/>
       <c r="G99" s="24"/>
@@ -11483,7 +11479,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="100" spans="1:20" ht="14.25" customHeight="1">
       <c r="A100" s="20">
         <v>93</v>
       </c>
@@ -11494,10 +11490,10 @@
         <v>78</v>
       </c>
       <c r="D100" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F100" s="23"/>
       <c r="G100" s="24"/>
@@ -11517,7 +11513,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="101" spans="1:20" ht="14.25" customHeight="1">
       <c r="A101" s="20">
         <v>94</v>
       </c>
@@ -11528,10 +11524,10 @@
         <v>87</v>
       </c>
       <c r="D101" s="21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="24"/>
@@ -11551,7 +11547,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="102" spans="1:20" ht="14.25" customHeight="1">
       <c r="A102" s="20">
         <v>95</v>
       </c>
@@ -11562,10 +11558,10 @@
         <v>87</v>
       </c>
       <c r="D102" s="21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F102" s="23"/>
       <c r="G102" s="24"/>
@@ -11585,7 +11581,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="103" spans="1:20" ht="14.25" customHeight="1">
       <c r="A103" s="20">
         <v>96</v>
       </c>
@@ -11596,10 +11592,10 @@
         <v>87</v>
       </c>
       <c r="D103" s="21" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F103" s="23"/>
       <c r="G103" s="24"/>
@@ -11619,7 +11615,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="104" spans="1:20" ht="14.25" customHeight="1">
       <c r="A104" s="20">
         <v>97</v>
       </c>
@@ -11630,10 +11626,10 @@
         <v>87</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F104" s="23"/>
       <c r="G104" s="24"/>
@@ -11653,7 +11649,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="105" spans="1:20" ht="14.25" customHeight="1">
       <c r="A105" s="20">
         <v>98</v>
       </c>
@@ -11664,10 +11660,10 @@
         <v>87</v>
       </c>
       <c r="D105" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F105" s="23"/>
       <c r="G105" s="24"/>
@@ -11687,7 +11683,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="106" spans="1:20" ht="14.25" customHeight="1">
       <c r="A106" s="20">
         <v>99</v>
       </c>
@@ -11698,10 +11694,10 @@
         <v>87</v>
       </c>
       <c r="D106" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F106" s="23"/>
       <c r="G106" s="24"/>
@@ -11721,7 +11717,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="107" spans="1:20" ht="14.25" customHeight="1">
       <c r="A107" s="20">
         <v>100</v>
       </c>
@@ -11732,10 +11728,10 @@
         <v>87</v>
       </c>
       <c r="D107" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="24"/>
@@ -11755,7 +11751,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="108" spans="1:20" ht="14.25" customHeight="1">
       <c r="A108" s="20">
         <v>101</v>
       </c>
@@ -11766,10 +11762,10 @@
         <v>87</v>
       </c>
       <c r="D108" s="21" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F108" s="23"/>
       <c r="G108" s="24"/>
@@ -11789,7 +11785,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="109" spans="1:20" ht="14.25" customHeight="1">
       <c r="A109" s="20">
         <v>102</v>
       </c>
@@ -11800,10 +11796,10 @@
         <v>87</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E109" s="22" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F109" s="23"/>
       <c r="G109" s="24"/>
@@ -11823,7 +11819,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="110" spans="1:20" ht="14.25" customHeight="1">
       <c r="A110" s="20">
         <v>103</v>
       </c>
@@ -11834,10 +11830,10 @@
         <v>87</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F110" s="23"/>
       <c r="G110" s="24"/>
@@ -11857,7 +11853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="111" spans="1:20" ht="14.25" customHeight="1">
       <c r="A111" s="20">
         <v>104</v>
       </c>
@@ -11868,10 +11864,10 @@
         <v>87</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
@@ -11891,7 +11887,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="112" spans="1:20" ht="14.25" customHeight="1">
       <c r="A112" s="20">
         <v>105</v>
       </c>
@@ -11902,10 +11898,10 @@
         <v>87</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F112" s="23"/>
       <c r="G112" s="24"/>
@@ -11925,7 +11921,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="113" spans="1:20" ht="14.25" customHeight="1">
       <c r="A113" s="20">
         <v>106</v>
       </c>
@@ -11936,10 +11932,10 @@
         <v>87</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F113" s="23"/>
       <c r="G113" s="24"/>
@@ -11959,7 +11955,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="114" spans="1:20" ht="14.25" customHeight="1">
       <c r="A114" s="20">
         <v>107</v>
       </c>
@@ -11970,10 +11966,10 @@
         <v>96</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E114" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F114" s="23"/>
       <c r="G114" s="24"/>
@@ -11993,7 +11989,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="115" spans="1:20" ht="14.25" customHeight="1">
       <c r="A115" s="20">
         <v>108</v>
       </c>
@@ -12004,10 +12000,10 @@
         <v>96</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E115" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F115" s="23"/>
       <c r="G115" s="24"/>
@@ -12027,7 +12023,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="116" spans="1:20" ht="14.25" customHeight="1">
       <c r="A116" s="20">
         <v>109</v>
       </c>
@@ -12038,10 +12034,10 @@
         <v>96</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E116" s="22" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F116" s="23"/>
       <c r="G116" s="24"/>
@@ -12061,7 +12057,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="117" spans="1:20" ht="14.25" customHeight="1">
       <c r="A117" s="20">
         <v>110</v>
       </c>
@@ -12072,10 +12068,10 @@
         <v>96</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E117" s="22" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F117" s="23"/>
       <c r="G117" s="24"/>
@@ -12095,7 +12091,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="118" spans="1:20" ht="14.25" customHeight="1">
       <c r="A118" s="20">
         <v>111</v>
       </c>
@@ -12106,10 +12102,10 @@
         <v>96</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E118" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F118" s="23"/>
       <c r="G118" s="24"/>
@@ -12129,7 +12125,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="119" spans="1:20" ht="14.25" customHeight="1">
       <c r="A119" s="20">
         <v>112</v>
       </c>
@@ -12140,10 +12136,10 @@
         <v>96</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E119" s="22" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F119" s="23"/>
       <c r="G119" s="24"/>
@@ -12163,7 +12159,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="120" spans="1:20" ht="14.25" customHeight="1">
       <c r="A120" s="20">
         <v>113</v>
       </c>
@@ -12174,10 +12170,10 @@
         <v>96</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E120" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F120" s="23"/>
       <c r="G120" s="24"/>
@@ -12197,7 +12193,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="121" spans="1:20" ht="14.25" customHeight="1">
       <c r="A121" s="20">
         <v>114</v>
       </c>
@@ -12208,10 +12204,10 @@
         <v>96</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E121" s="22" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
@@ -12231,7 +12227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="122" spans="1:20" ht="14.25" customHeight="1">
       <c r="A122" s="20">
         <v>115</v>
       </c>
@@ -12242,10 +12238,10 @@
         <v>96</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E122" s="22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F122" s="23"/>
       <c r="G122" s="24"/>
@@ -12265,7 +12261,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="123" spans="1:20" ht="14.25" customHeight="1">
       <c r="A123" s="20">
         <v>116</v>
       </c>
@@ -12276,10 +12272,10 @@
         <v>96</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E123" s="22" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F123" s="23"/>
       <c r="G123" s="24"/>
@@ -12299,7 +12295,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="124" spans="1:20" ht="14.25" customHeight="1">
       <c r="A124" s="20">
         <v>117</v>
       </c>
@@ -12310,10 +12306,10 @@
         <v>96</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E124" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F124" s="23"/>
       <c r="G124" s="24"/>
@@ -12333,7 +12329,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="125" spans="1:20" ht="14.25" customHeight="1">
       <c r="A125" s="20">
         <v>118</v>
       </c>
@@ -12344,10 +12340,10 @@
         <v>96</v>
       </c>
       <c r="D125" s="21" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E125" s="22" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F125" s="23"/>
       <c r="G125" s="24"/>
@@ -12367,7 +12363,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="126" spans="1:20" ht="14.25" customHeight="1">
       <c r="A126" s="20">
         <v>119</v>
       </c>
@@ -12378,10 +12374,10 @@
         <v>96</v>
       </c>
       <c r="D126" s="21" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E126" s="22" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F126" s="23"/>
       <c r="G126" s="24"/>
@@ -12401,7 +12397,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="127" spans="1:20" ht="14.25" customHeight="1">
       <c r="A127" s="20">
         <v>120</v>
       </c>
@@ -12412,10 +12408,10 @@
         <v>96</v>
       </c>
       <c r="D127" s="21" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E127" s="22" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F127" s="23"/>
       <c r="G127" s="24"/>
@@ -12435,7 +12431,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="128" spans="1:20" ht="14.25" customHeight="1">
       <c r="A128" s="20">
         <v>121</v>
       </c>
@@ -12446,10 +12442,10 @@
         <v>96</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E128" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F128" s="23"/>
       <c r="G128" s="24"/>
@@ -12469,7 +12465,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="129" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="129" spans="1:20" ht="14.25" customHeight="1">
       <c r="A129" s="20">
         <v>122</v>
       </c>
@@ -12480,10 +12476,10 @@
         <v>105</v>
       </c>
       <c r="D129" s="21" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E129" s="22" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F129" s="23"/>
       <c r="G129" s="24"/>
@@ -12503,7 +12499,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="130" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="130" spans="1:20" ht="14.25" customHeight="1">
       <c r="A130" s="20">
         <v>123</v>
       </c>
@@ -12514,10 +12510,10 @@
         <v>105</v>
       </c>
       <c r="D130" s="21" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E130" s="22" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F130" s="23"/>
       <c r="G130" s="24"/>
@@ -12537,7 +12533,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="131" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="131" spans="1:20" ht="14.25" customHeight="1">
       <c r="A131" s="20">
         <v>124</v>
       </c>
@@ -12548,10 +12544,10 @@
         <v>105</v>
       </c>
       <c r="D131" s="21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E131" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F131" s="23"/>
       <c r="G131" s="24"/>
@@ -12571,7 +12567,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="132" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="132" spans="1:20" ht="14.25" customHeight="1">
       <c r="A132" s="20">
         <v>125</v>
       </c>
@@ -12582,10 +12578,10 @@
         <v>105</v>
       </c>
       <c r="D132" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E132" s="22" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F132" s="23"/>
       <c r="G132" s="24"/>
@@ -12605,7 +12601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="133" spans="1:20" ht="14.25" customHeight="1">
       <c r="A133" s="20">
         <v>126</v>
       </c>
@@ -12616,10 +12612,10 @@
         <v>105</v>
       </c>
       <c r="D133" s="21" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E133" s="22" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F133" s="23"/>
       <c r="G133" s="24"/>
@@ -12639,7 +12635,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="134" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="134" spans="1:20" ht="14.25" customHeight="1">
       <c r="A134" s="20">
         <v>127</v>
       </c>
@@ -12650,10 +12646,10 @@
         <v>105</v>
       </c>
       <c r="D134" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E134" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F134" s="23"/>
       <c r="G134" s="24"/>
@@ -12673,7 +12669,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="135" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="135" spans="1:20" ht="14.25" customHeight="1">
       <c r="A135" s="20">
         <v>128</v>
       </c>
@@ -12684,10 +12680,10 @@
         <v>105</v>
       </c>
       <c r="D135" s="21" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E135" s="22" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F135" s="23"/>
       <c r="G135" s="24"/>
@@ -12707,7 +12703,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="136" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="136" spans="1:20" ht="14.25" customHeight="1">
       <c r="A136" s="20">
         <v>129</v>
       </c>
@@ -12718,10 +12714,10 @@
         <v>105</v>
       </c>
       <c r="D136" s="21" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E136" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F136" s="23"/>
       <c r="G136" s="24"/>
@@ -12741,7 +12737,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="137" spans="1:20" ht="14.25" customHeight="1">
       <c r="A137" s="20">
         <v>130</v>
       </c>
@@ -12752,10 +12748,10 @@
         <v>105</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E137" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F137" s="23"/>
       <c r="G137" s="24"/>
@@ -12775,7 +12771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="138" spans="1:20" ht="14.25" customHeight="1">
       <c r="A138" s="20">
         <v>131</v>
       </c>
@@ -12786,10 +12782,10 @@
         <v>105</v>
       </c>
       <c r="D138" s="21" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E138" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F138" s="23"/>
       <c r="G138" s="24"/>
@@ -12809,7 +12805,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="139" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="139" spans="1:20" ht="14.25" customHeight="1">
       <c r="A139" s="20">
         <v>132</v>
       </c>
@@ -12820,10 +12816,10 @@
         <v>105</v>
       </c>
       <c r="D139" s="21" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E139" s="22" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F139" s="23"/>
       <c r="G139" s="24"/>
@@ -12843,7 +12839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="140" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="140" spans="1:20" ht="14.25" customHeight="1">
       <c r="A140" s="20">
         <v>133</v>
       </c>
@@ -12854,10 +12850,10 @@
         <v>105</v>
       </c>
       <c r="D140" s="21" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E140" s="22" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F140" s="23"/>
       <c r="G140" s="24"/>
@@ -12877,7 +12873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="141" spans="1:20" ht="14.25" customHeight="1">
       <c r="A141" s="20">
         <v>134</v>
       </c>
@@ -12888,10 +12884,10 @@
         <v>105</v>
       </c>
       <c r="D141" s="21" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E141" s="22" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
@@ -12911,7 +12907,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="142" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="142" spans="1:20" ht="14.25" customHeight="1">
       <c r="A142" s="20">
         <v>135</v>
       </c>
@@ -12922,10 +12918,10 @@
         <v>105</v>
       </c>
       <c r="D142" s="21" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E142" s="22" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F142" s="23"/>
       <c r="G142" s="24"/>
@@ -12945,7 +12941,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="143" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="143" spans="1:20" ht="14.25" customHeight="1">
       <c r="A143" s="20">
         <v>136</v>
       </c>
@@ -12956,10 +12952,10 @@
         <v>105</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E143" s="22" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F143" s="23"/>
       <c r="G143" s="24"/>
@@ -12979,7 +12975,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="144" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="144" spans="1:20" ht="14.25" customHeight="1">
       <c r="A144" s="20">
         <v>137</v>
       </c>
@@ -12990,10 +12986,10 @@
         <v>105</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E144" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F144" s="23"/>
       <c r="G144" s="24"/>
@@ -13013,7 +13009,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="145" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="145" spans="1:20" ht="14.25" customHeight="1">
       <c r="A145" s="20">
         <v>138</v>
       </c>
@@ -13024,10 +13020,10 @@
         <v>105</v>
       </c>
       <c r="D145" s="21" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E145" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F145" s="23"/>
       <c r="G145" s="24"/>
@@ -13047,7 +13043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="146" spans="1:20" ht="14.25" customHeight="1">
       <c r="A146" s="20">
         <v>139</v>
       </c>
@@ -13058,10 +13054,10 @@
         <v>105</v>
       </c>
       <c r="D146" s="21" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E146" s="22" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F146" s="23"/>
       <c r="G146" s="24"/>
@@ -13081,7 +13077,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="147" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="147" spans="1:20" ht="14.25" customHeight="1">
       <c r="A147" s="20">
         <v>140</v>
       </c>
@@ -13092,10 +13088,10 @@
         <v>105</v>
       </c>
       <c r="D147" s="21" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E147" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F147" s="23"/>
       <c r="G147" s="24"/>
@@ -13115,7 +13111,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="148" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="148" spans="1:20" ht="14.25" customHeight="1">
       <c r="A148" s="20">
         <v>141</v>
       </c>
@@ -13126,10 +13122,10 @@
         <v>105</v>
       </c>
       <c r="D148" s="21" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E148" s="22" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F148" s="23"/>
       <c r="G148" s="24"/>
@@ -13149,7 +13145,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="149" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="149" spans="1:20" ht="14.25" customHeight="1">
       <c r="A149" s="20">
         <v>142</v>
       </c>
@@ -13160,10 +13156,10 @@
         <v>105</v>
       </c>
       <c r="D149" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E149" s="22" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F149" s="23"/>
       <c r="G149" s="24"/>
@@ -13183,7 +13179,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="150" spans="1:20" ht="14.25" customHeight="1">
       <c r="A150" s="20">
         <v>143</v>
       </c>
@@ -13194,10 +13190,10 @@
         <v>105</v>
       </c>
       <c r="D150" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E150" s="22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F150" s="23"/>
       <c r="G150" s="24"/>
@@ -13217,7 +13213,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="151" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="151" spans="1:20" ht="14.25" customHeight="1">
       <c r="A151" s="20">
         <v>144</v>
       </c>
@@ -13228,10 +13224,10 @@
         <v>105</v>
       </c>
       <c r="D151" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E151" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F151" s="23"/>
       <c r="G151" s="24"/>
@@ -13251,7 +13247,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="152" spans="1:20" ht="14.25" customHeight="1">
       <c r="A152" s="20">
         <v>145</v>
       </c>
@@ -13262,10 +13258,10 @@
         <v>105</v>
       </c>
       <c r="D152" s="21" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E152" s="22" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F152" s="23"/>
       <c r="G152" s="24"/>
@@ -13285,7 +13281,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="153" spans="1:20" ht="14.25" customHeight="1">
       <c r="A153" s="20">
         <v>146</v>
       </c>
@@ -13296,10 +13292,10 @@
         <v>105</v>
       </c>
       <c r="D153" s="21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E153" s="22" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F153" s="23"/>
       <c r="G153" s="24"/>
@@ -13330,10 +13326,10 @@
         <v>129</v>
       </c>
       <c r="D154" s="21" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E154" s="22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F154" s="23"/>
       <c r="G154" s="24"/>
@@ -13343,7 +13339,7 @@
         <v>70</v>
       </c>
       <c r="K154" s="25" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="L154" s="25"/>
       <c r="M154" s="25"/>
@@ -13368,10 +13364,10 @@
         <v>129</v>
       </c>
       <c r="D155" s="21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E155" s="22" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F155" s="23"/>
       <c r="G155" s="24"/>
@@ -13381,7 +13377,7 @@
         <v>70</v>
       </c>
       <c r="K155" s="25" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L155" s="25"/>
       <c r="M155" s="25"/>
@@ -13406,10 +13402,10 @@
         <v>129</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F156" s="23"/>
       <c r="G156" s="24"/>
@@ -13419,7 +13415,7 @@
         <v>70</v>
       </c>
       <c r="K156" s="25" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L156" s="25"/>
       <c r="M156" s="25"/>
@@ -13444,10 +13440,10 @@
         <v>129</v>
       </c>
       <c r="D157" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E157" s="22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F157" s="23"/>
       <c r="G157" s="24"/>
@@ -13457,7 +13453,7 @@
         <v>70</v>
       </c>
       <c r="K157" s="25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L157" s="25"/>
       <c r="M157" s="25"/>
@@ -13482,22 +13478,22 @@
         <v>129</v>
       </c>
       <c r="D158" s="21" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E158" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F158" s="23">
         <v>45316</v>
       </c>
       <c r="G158" s="29" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H158" s="29" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I158" s="29" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="J158" s="25" t="s">
         <v>66</v>
@@ -13521,7 +13517,7 @@
       </c>
       <c r="R158" s="26"/>
       <c r="S158" s="27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="T158" s="28" t="s">
         <v>116</v>
@@ -13538,10 +13534,10 @@
         <v>129</v>
       </c>
       <c r="D159" s="21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E159" s="22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F159" s="23"/>
       <c r="G159" s="24"/>
@@ -13551,7 +13547,7 @@
         <v>70</v>
       </c>
       <c r="K159" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="L159" s="25"/>
       <c r="M159" s="25"/>
@@ -13576,22 +13572,22 @@
         <v>129</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E160" s="22" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F160" s="23">
         <v>45316</v>
       </c>
       <c r="G160" s="29" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="H160" s="29" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I160" s="29" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J160" s="25" t="s">
         <v>66</v>
@@ -13632,27 +13628,27 @@
         <v>129</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E161" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F161" s="23">
         <v>45320</v>
       </c>
       <c r="G161" s="24" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="I161" s="24" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J161" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="K161" s="48"/>
+      <c r="K161" s="25"/>
       <c r="L161" s="25" t="s">
         <v>70</v>
       </c>
@@ -13671,7 +13667,7 @@
       </c>
       <c r="R161" s="26"/>
       <c r="S161" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="T161" s="28" t="s">
         <v>116</v>
@@ -13688,22 +13684,22 @@
         <v>129</v>
       </c>
       <c r="D162" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E162" s="22" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F162" s="31">
         <v>45316</v>
       </c>
       <c r="G162" s="29" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H162" s="29" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="I162" s="29" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J162" s="25" t="s">
         <v>66</v>
@@ -13727,7 +13723,7 @@
       </c>
       <c r="R162" s="26"/>
       <c r="S162" s="27" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="T162" s="28" t="s">
         <v>116</v>
@@ -13744,22 +13740,22 @@
         <v>129</v>
       </c>
       <c r="D163" s="21" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E163" s="22" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F163" s="23">
         <v>45314</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="H163" s="29" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="I163" s="29" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="J163" s="25" t="s">
         <v>66</v>
@@ -13783,7 +13779,7 @@
       </c>
       <c r="R163" s="26"/>
       <c r="S163" s="27" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="T163" s="28" t="s">
         <v>116</v>
@@ -13800,10 +13796,10 @@
         <v>129</v>
       </c>
       <c r="D164" s="21" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E164" s="22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F164" s="23"/>
       <c r="G164" s="24"/>
@@ -13813,7 +13809,7 @@
         <v>70</v>
       </c>
       <c r="K164" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L164" s="25"/>
       <c r="M164" s="25"/>
@@ -13838,10 +13834,10 @@
         <v>129</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E165" s="22" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F165" s="23"/>
       <c r="G165" s="24"/>
@@ -13851,7 +13847,7 @@
         <v>70</v>
       </c>
       <c r="K165" s="25" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="L165" s="25"/>
       <c r="M165" s="25"/>
@@ -13876,10 +13872,10 @@
         <v>129</v>
       </c>
       <c r="D166" s="21" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E166" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F166" s="23"/>
       <c r="G166" s="24"/>
@@ -13889,7 +13885,7 @@
         <v>70</v>
       </c>
       <c r="K166" s="25" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="L166" s="25"/>
       <c r="M166" s="25"/>
@@ -13914,22 +13910,22 @@
         <v>129</v>
       </c>
       <c r="D167" s="21" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E167" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F167" s="23">
         <v>45314</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="H167" s="29" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I167" s="29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J167" s="25" t="s">
         <v>66</v>
@@ -13953,7 +13949,7 @@
       </c>
       <c r="R167" s="26"/>
       <c r="S167" s="27" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="T167" s="28" t="s">
         <v>116</v>
@@ -13970,22 +13966,22 @@
         <v>129</v>
       </c>
       <c r="D168" s="21" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E168" s="22" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F168" s="23">
         <v>45314</v>
       </c>
       <c r="G168" s="29" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H168" s="29" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I168" s="29" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="J168" s="25" t="s">
         <v>66</v>
@@ -14009,7 +14005,7 @@
       </c>
       <c r="R168" s="26"/>
       <c r="S168" s="27" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="T168" s="28" t="s">
         <v>116</v>
@@ -14026,22 +14022,22 @@
         <v>129</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E169" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F169" s="23">
         <v>45314</v>
       </c>
       <c r="G169" s="29" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H169" s="29" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I169" s="29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J169" s="25" t="s">
         <v>66</v>
@@ -14065,7 +14061,7 @@
       </c>
       <c r="R169" s="26"/>
       <c r="S169" s="27" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="T169" s="28" t="s">
         <v>116</v>
@@ -14082,10 +14078,10 @@
         <v>129</v>
       </c>
       <c r="D170" s="21" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E170" s="22" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F170" s="23"/>
       <c r="G170" s="24"/>
@@ -14095,7 +14091,7 @@
         <v>70</v>
       </c>
       <c r="K170" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L170" s="25"/>
       <c r="M170" s="25"/>
@@ -14120,10 +14116,10 @@
         <v>129</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E171" s="22" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
@@ -14133,7 +14129,7 @@
         <v>70</v>
       </c>
       <c r="K171" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L171" s="25"/>
       <c r="M171" s="25"/>
@@ -14158,10 +14154,10 @@
         <v>129</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E172" s="22" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F172" s="23"/>
       <c r="G172" s="24"/>
@@ -14171,7 +14167,7 @@
         <v>70</v>
       </c>
       <c r="K172" s="25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L172" s="25"/>
       <c r="M172" s="25"/>
@@ -14196,10 +14192,10 @@
         <v>129</v>
       </c>
       <c r="D173" s="21" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E173" s="22" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F173" s="23"/>
       <c r="G173" s="24"/>
@@ -14209,7 +14205,7 @@
         <v>70</v>
       </c>
       <c r="K173" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L173" s="25"/>
       <c r="M173" s="25"/>
@@ -14234,10 +14230,10 @@
         <v>129</v>
       </c>
       <c r="D174" s="21" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E174" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="F174" s="23"/>
       <c r="G174" s="24"/>
@@ -14247,7 +14243,7 @@
         <v>70</v>
       </c>
       <c r="K174" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="L174" s="25"/>
       <c r="M174" s="25"/>
@@ -14272,22 +14268,22 @@
         <v>129</v>
       </c>
       <c r="D175" s="21" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E175" s="22" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="F175" s="23">
         <v>45314</v>
       </c>
       <c r="G175" s="29" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="H175" s="29" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="I175" s="29" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="J175" s="25" t="s">
         <v>66</v>
@@ -14311,7 +14307,7 @@
       </c>
       <c r="R175" s="26"/>
       <c r="S175" s="27" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="T175" s="28" t="s">
         <v>116</v>
@@ -14328,22 +14324,22 @@
         <v>129</v>
       </c>
       <c r="D176" s="21" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E176" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F176" s="23">
         <v>45314</v>
       </c>
       <c r="G176" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H176" s="29" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I176" s="29" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J176" s="25" t="s">
         <v>66</v>
@@ -14367,13 +14363,13 @@
       </c>
       <c r="R176" s="26"/>
       <c r="S176" s="27" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="T176" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="177" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="177" spans="1:20" ht="14.25" customHeight="1">
       <c r="A177" s="20">
         <v>170</v>
       </c>
@@ -14384,10 +14380,10 @@
         <v>124</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E177" s="22" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="F177" s="23"/>
       <c r="G177" s="24"/>
@@ -14407,7 +14403,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="178" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="178" spans="1:20" ht="14.25" customHeight="1">
       <c r="A178" s="20">
         <v>171</v>
       </c>
@@ -14418,10 +14414,10 @@
         <v>124</v>
       </c>
       <c r="D178" s="21" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E178" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F178" s="23"/>
       <c r="G178" s="24"/>
@@ -14441,7 +14437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="179" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="179" spans="1:20" ht="14.25" customHeight="1">
       <c r="A179" s="20">
         <v>172</v>
       </c>
@@ -14452,10 +14448,10 @@
         <v>124</v>
       </c>
       <c r="D179" s="21" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E179" s="22" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F179" s="23"/>
       <c r="G179" s="24"/>
@@ -14475,7 +14471,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="180" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="180" spans="1:20" ht="14.25" customHeight="1">
       <c r="A180" s="20">
         <v>173</v>
       </c>
@@ -14486,10 +14482,10 @@
         <v>124</v>
       </c>
       <c r="D180" s="21" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E180" s="22" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F180" s="23"/>
       <c r="G180" s="24"/>
@@ -14509,7 +14505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="181" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="181" spans="1:20" ht="14.25" customHeight="1">
       <c r="A181" s="20">
         <v>174</v>
       </c>
@@ -14520,10 +14516,10 @@
         <v>124</v>
       </c>
       <c r="D181" s="21" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F181" s="23"/>
       <c r="G181" s="24"/>
@@ -14543,7 +14539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="182" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="182" spans="1:20" ht="14.25" customHeight="1">
       <c r="A182" s="20">
         <v>175</v>
       </c>
@@ -14554,10 +14550,10 @@
         <v>124</v>
       </c>
       <c r="D182" s="21" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E182" s="22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F182" s="23"/>
       <c r="G182" s="24"/>
@@ -14577,7 +14573,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="183" spans="1:20" ht="14.25" customHeight="1">
       <c r="A183" s="20">
         <v>176</v>
       </c>
@@ -14588,10 +14584,10 @@
         <v>124</v>
       </c>
       <c r="D183" s="21" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E183" s="22" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F183" s="23"/>
       <c r="G183" s="24"/>
@@ -14611,7 +14607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="184" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="184" spans="1:20" ht="14.25" customHeight="1">
       <c r="A184" s="20">
         <v>177</v>
       </c>
@@ -14622,10 +14618,10 @@
         <v>124</v>
       </c>
       <c r="D184" s="21" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E184" s="22" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F184" s="23"/>
       <c r="G184" s="24"/>
@@ -14645,7 +14641,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="185" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="185" spans="1:20" ht="14.25" customHeight="1">
       <c r="A185" s="20">
         <v>178</v>
       </c>
@@ -14656,10 +14652,10 @@
         <v>124</v>
       </c>
       <c r="D185" s="21" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E185" s="22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F185" s="23"/>
       <c r="G185" s="24"/>
@@ -14679,7 +14675,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="186" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="186" spans="1:20" ht="14.25" customHeight="1">
       <c r="A186" s="20">
         <v>179</v>
       </c>
@@ -14690,10 +14686,10 @@
         <v>124</v>
       </c>
       <c r="D186" s="21" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E186" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="F186" s="23"/>
       <c r="G186" s="24"/>
@@ -14713,7 +14709,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="187" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="187" spans="1:20" ht="14.25" customHeight="1">
       <c r="A187" s="20">
         <v>180</v>
       </c>
@@ -14724,10 +14720,10 @@
         <v>124</v>
       </c>
       <c r="D187" s="21" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E187" s="22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F187" s="23"/>
       <c r="G187" s="24"/>
@@ -14747,7 +14743,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="188" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="188" spans="1:20" ht="14.25" customHeight="1">
       <c r="A188" s="20">
         <v>181</v>
       </c>
@@ -14758,10 +14754,10 @@
         <v>124</v>
       </c>
       <c r="D188" s="21" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E188" s="22" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F188" s="23"/>
       <c r="G188" s="24"/>
@@ -14781,7 +14777,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="189" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="189" spans="1:20" ht="14.25" customHeight="1">
       <c r="A189" s="20">
         <v>182</v>
       </c>
@@ -14792,10 +14788,10 @@
         <v>124</v>
       </c>
       <c r="D189" s="21" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E189" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="F189" s="23"/>
       <c r="G189" s="24"/>
@@ -14815,7 +14811,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="190" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="190" spans="1:20" ht="14.25" customHeight="1">
       <c r="A190" s="20">
         <v>183</v>
       </c>
@@ -14826,10 +14822,10 @@
         <v>124</v>
       </c>
       <c r="D190" s="21" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E190" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F190" s="23"/>
       <c r="G190" s="24"/>
@@ -14849,7 +14845,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="191" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="191" spans="1:20" ht="14.25" customHeight="1">
       <c r="A191" s="20">
         <v>184</v>
       </c>
@@ -14860,10 +14856,10 @@
         <v>124</v>
       </c>
       <c r="D191" s="21" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E191" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
@@ -14883,7 +14879,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="192" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="192" spans="1:20" ht="14.25" customHeight="1">
       <c r="A192" s="20">
         <v>185</v>
       </c>
@@ -14894,10 +14890,10 @@
         <v>124</v>
       </c>
       <c r="D192" s="21" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E192" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F192" s="23"/>
       <c r="G192" s="24"/>
@@ -14917,7 +14913,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="193" spans="1:20" ht="14.25" customHeight="1">
       <c r="A193" s="20">
         <v>186</v>
       </c>
@@ -14928,10 +14924,10 @@
         <v>124</v>
       </c>
       <c r="D193" s="21" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E193" s="22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F193" s="23"/>
       <c r="G193" s="24"/>
@@ -14951,7 +14947,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="194" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="194" spans="1:20" ht="14.25" customHeight="1">
       <c r="A194" s="20">
         <v>187</v>
       </c>
@@ -14962,10 +14958,10 @@
         <v>124</v>
       </c>
       <c r="D194" s="21" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E194" s="22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F194" s="23"/>
       <c r="G194" s="24"/>
@@ -14985,7 +14981,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="195" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="195" spans="1:20" ht="14.25" customHeight="1">
       <c r="A195" s="20">
         <v>188</v>
       </c>
@@ -14996,10 +14992,10 @@
         <v>124</v>
       </c>
       <c r="D195" s="21" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E195" s="22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="F195" s="23"/>
       <c r="G195" s="24"/>
@@ -15019,7 +15015,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="196" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="196" spans="1:20" ht="14.25" customHeight="1">
       <c r="A196" s="20">
         <v>189</v>
       </c>
@@ -15030,10 +15026,10 @@
         <v>124</v>
       </c>
       <c r="D196" s="21" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E196" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="F196" s="23"/>
       <c r="G196" s="24"/>
@@ -15053,7 +15049,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="197" spans="1:20" ht="14.25" customHeight="1">
       <c r="A197" s="20">
         <v>190</v>
       </c>
@@ -15064,10 +15060,10 @@
         <v>124</v>
       </c>
       <c r="D197" s="21" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E197" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F197" s="23"/>
       <c r="G197" s="24"/>
@@ -15087,7 +15083,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="198" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="198" spans="1:20" ht="14.25" customHeight="1">
       <c r="A198" s="20">
         <v>191</v>
       </c>
@@ -15098,10 +15094,10 @@
         <v>48</v>
       </c>
       <c r="D198" s="21" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E198" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F198" s="23"/>
       <c r="G198" s="24"/>
@@ -15121,21 +15117,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="199" spans="1:20" ht="241.5" hidden="1" customHeight="1">
+    <row r="199" spans="1:20" ht="241.5" customHeight="1">
       <c r="A199" s="20">
         <v>192</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C199" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D199" s="21" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E199" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="F199" s="23"/>
       <c r="G199" s="24"/>
@@ -15155,21 +15151,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="200" spans="1:20" ht="301.5" hidden="1" customHeight="1">
+    <row r="200" spans="1:20" ht="301.5" customHeight="1">
       <c r="A200" s="20">
         <v>193</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C200" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D200" s="21" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E200" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="F200" s="23"/>
       <c r="G200" s="24"/>
@@ -15189,21 +15185,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="201" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="201" spans="1:20" ht="14.25" customHeight="1">
       <c r="A201" s="20">
         <v>194</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C201" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D201" s="21" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E201" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="F201" s="23"/>
       <c r="G201" s="24"/>
@@ -15223,21 +15219,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="202" spans="1:20" ht="14.25" customHeight="1">
       <c r="A202" s="20">
         <v>195</v>
       </c>
       <c r="B202" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C202" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D202" s="21" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E202" s="22" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="F202" s="23"/>
       <c r="G202" s="24"/>
@@ -15257,21 +15253,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="203" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="203" spans="1:20" ht="14.25" customHeight="1">
       <c r="A203" s="20">
         <v>196</v>
       </c>
       <c r="B203" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C203" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D203" s="21" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E203" s="22" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F203" s="23"/>
       <c r="G203" s="24"/>
@@ -15291,21 +15287,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="204" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="204" spans="1:20" ht="14.25" customHeight="1">
       <c r="A204" s="20">
         <v>197</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C204" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D204" s="21" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E204" s="22" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="F204" s="23"/>
       <c r="G204" s="24"/>
@@ -15325,21 +15321,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="205" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="205" spans="1:20" ht="14.25" customHeight="1">
       <c r="A205" s="20">
         <v>198</v>
       </c>
       <c r="B205" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C205" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D205" s="21" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E205" s="22" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F205" s="23"/>
       <c r="G205" s="24"/>
@@ -15359,21 +15355,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="206" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="206" spans="1:20" ht="14.25" customHeight="1">
       <c r="A206" s="20">
         <v>199</v>
       </c>
       <c r="B206" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C206" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D206" s="21" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E206" s="22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="F206" s="23"/>
       <c r="G206" s="24"/>
@@ -15393,21 +15389,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="207" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="207" spans="1:20" ht="14.25" customHeight="1">
       <c r="A207" s="20">
         <v>200</v>
       </c>
       <c r="B207" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C207" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D207" s="21" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E207" s="22" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="F207" s="23"/>
       <c r="G207" s="24"/>
@@ -15427,21 +15423,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="208" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="208" spans="1:20" ht="14.25" customHeight="1">
       <c r="A208" s="20">
         <v>201</v>
       </c>
       <c r="B208" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C208" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D208" s="21" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E208" s="22" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F208" s="23"/>
       <c r="G208" s="24"/>
@@ -15461,21 +15457,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="209" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="209" spans="1:20" ht="14.25" customHeight="1">
       <c r="A209" s="20">
         <v>202</v>
       </c>
       <c r="B209" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C209" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D209" s="21" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E209" s="22" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="F209" s="23"/>
       <c r="G209" s="24"/>
@@ -15495,21 +15491,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="210" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="210" spans="1:20" ht="14.25" customHeight="1">
       <c r="A210" s="20">
         <v>203</v>
       </c>
       <c r="B210" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C210" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D210" s="21" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E210" s="22" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="F210" s="23"/>
       <c r="G210" s="24"/>
@@ -15529,21 +15525,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="211" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="211" spans="1:20" ht="14.25" customHeight="1">
       <c r="A211" s="20">
         <v>204</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C211" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D211" s="21" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E211" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
@@ -15563,21 +15559,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="212" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="212" spans="1:20" ht="14.25" customHeight="1">
       <c r="A212" s="20">
         <v>205</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C212" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D212" s="21" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E212" s="22" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F212" s="23"/>
       <c r="G212" s="24"/>
@@ -15597,21 +15593,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="213" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="213" spans="1:20" ht="14.25" customHeight="1">
       <c r="A213" s="20">
         <v>206</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C213" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D213" s="21" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E213" s="22" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F213" s="23"/>
       <c r="G213" s="24"/>
@@ -15631,21 +15627,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="214" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="214" spans="1:20" ht="14.25" customHeight="1">
       <c r="A214" s="20">
         <v>207</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C214" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D214" s="21" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E214" s="22" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F214" s="23"/>
       <c r="G214" s="24"/>
@@ -15665,21 +15661,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="215" spans="1:20" ht="236.25" hidden="1" customHeight="1">
+    <row r="215" spans="1:20" ht="236.25" customHeight="1">
       <c r="A215" s="20">
         <v>208</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C215" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D215" s="21" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E215" s="22" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F215" s="23"/>
       <c r="G215" s="24"/>
@@ -15699,21 +15695,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="216" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="216" spans="1:20" ht="14.25" customHeight="1">
       <c r="A216" s="20">
         <v>209</v>
       </c>
       <c r="B216" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C216" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D216" s="21" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E216" s="22" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F216" s="23"/>
       <c r="G216" s="24"/>
@@ -15733,21 +15729,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="217" spans="1:20" ht="284.25" hidden="1" customHeight="1">
+    <row r="217" spans="1:20" ht="284.25" customHeight="1">
       <c r="A217" s="20">
         <v>210</v>
       </c>
       <c r="B217" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C217" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D217" s="21" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E217" s="22" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F217" s="23"/>
       <c r="G217" s="24"/>
@@ -15767,21 +15763,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="218" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="218" spans="1:20" ht="14.25" customHeight="1">
       <c r="A218" s="20">
         <v>211</v>
       </c>
       <c r="B218" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C218" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D218" s="21" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="E218" s="22" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F218" s="23"/>
       <c r="G218" s="24"/>
@@ -15801,21 +15797,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="219" spans="1:20" ht="267.75" hidden="1" customHeight="1">
+    <row r="219" spans="1:20" ht="267.75" customHeight="1">
       <c r="A219" s="20">
         <v>212</v>
       </c>
       <c r="B219" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C219" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D219" s="21" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="E219" s="22" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F219" s="23"/>
       <c r="G219" s="24"/>
@@ -15835,21 +15831,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="220" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="220" spans="1:20" ht="14.25" customHeight="1">
       <c r="A220" s="20">
         <v>213</v>
       </c>
       <c r="B220" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C220" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D220" s="21" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E220" s="22" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F220" s="23"/>
       <c r="G220" s="24"/>
@@ -15869,21 +15865,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="221" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="221" spans="1:20" ht="14.25" customHeight="1">
       <c r="A221" s="20">
         <v>214</v>
       </c>
       <c r="B221" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C221" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D221" s="21" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E221" s="22" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F221" s="23"/>
       <c r="G221" s="24"/>
@@ -15903,21 +15899,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="222" spans="1:20" ht="14.25" customHeight="1">
       <c r="A222" s="20">
         <v>215</v>
       </c>
       <c r="B222" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C222" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D222" s="21" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E222" s="22" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F222" s="23"/>
       <c r="G222" s="24"/>
@@ -15937,21 +15933,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="223" spans="1:20" ht="14.25" customHeight="1">
       <c r="A223" s="20">
         <v>216</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C223" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D223" s="21" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E223" s="22" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F223" s="23"/>
       <c r="G223" s="24"/>
@@ -15971,21 +15967,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="224" spans="1:20" ht="14.25" customHeight="1">
       <c r="A224" s="20">
         <v>217</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C224" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D224" s="21" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E224" s="22" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="F224" s="23"/>
       <c r="G224" s="24"/>
@@ -16005,21 +16001,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="225" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="225" spans="1:20" ht="14.25" customHeight="1">
       <c r="A225" s="20">
         <v>218</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C225" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D225" s="21" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E225" s="22" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="F225" s="23"/>
       <c r="G225" s="24"/>
@@ -16039,21 +16035,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="226" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="226" spans="1:20" ht="14.25" customHeight="1">
       <c r="A226" s="20">
         <v>219</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C226" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D226" s="21" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E226" s="22" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F226" s="23"/>
       <c r="G226" s="24"/>
@@ -16073,21 +16069,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="227" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="227" spans="1:20" ht="14.25" customHeight="1">
       <c r="A227" s="20">
         <v>220</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C227" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D227" s="21" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E227" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F227" s="23"/>
       <c r="G227" s="24"/>
@@ -16107,21 +16103,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="228" spans="1:20" ht="268.5" hidden="1" customHeight="1">
+    <row r="228" spans="1:20" ht="268.5" customHeight="1">
       <c r="A228" s="20">
         <v>221</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C228" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D228" s="21" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E228" s="22" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F228" s="23"/>
       <c r="G228" s="24"/>
@@ -16141,21 +16137,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="229" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="229" spans="1:20" ht="14.25" customHeight="1">
       <c r="A229" s="20">
         <v>222</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C229" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D229" s="21" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E229" s="22" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="F229" s="23"/>
       <c r="G229" s="24"/>
@@ -16175,21 +16171,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="230" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="230" spans="1:20" ht="14.25" customHeight="1">
       <c r="A230" s="20">
         <v>223</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C230" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E230" s="22" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F230" s="23"/>
       <c r="G230" s="24"/>
@@ -16209,21 +16205,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="231" spans="1:20" ht="204" hidden="1" customHeight="1">
+    <row r="231" spans="1:20" ht="204" customHeight="1">
       <c r="A231" s="20">
         <v>224</v>
       </c>
       <c r="B231" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C231" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D231" s="21" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E231" s="22" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="F231" s="23"/>
       <c r="G231" s="24"/>
@@ -16243,21 +16239,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="232" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="232" spans="1:20" ht="14.25" customHeight="1">
       <c r="A232" s="20">
         <v>225</v>
       </c>
       <c r="B232" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C232" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E232" s="22" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="F232" s="23"/>
       <c r="G232" s="24"/>
@@ -16277,21 +16273,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="233" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="233" spans="1:20" ht="14.25" customHeight="1">
       <c r="A233" s="20">
         <v>226</v>
       </c>
       <c r="B233" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C233" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D233" s="21" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="E233" s="22" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F233" s="23"/>
       <c r="G233" s="24"/>
@@ -16311,21 +16307,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="234" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="234" spans="1:20" ht="14.25" customHeight="1">
       <c r="A234" s="20">
         <v>227</v>
       </c>
       <c r="B234" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C234" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D234" s="21" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E234" s="22" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F234" s="23"/>
       <c r="G234" s="24"/>
@@ -16345,21 +16341,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="235" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="235" spans="1:20" ht="14.25" customHeight="1">
       <c r="A235" s="20">
         <v>228</v>
       </c>
       <c r="B235" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C235" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D235" s="21" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E235" s="22" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F235" s="23"/>
       <c r="G235" s="24"/>
@@ -16379,21 +16375,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="236" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="236" spans="1:20" ht="14.25" customHeight="1">
       <c r="A236" s="20">
         <v>229</v>
       </c>
       <c r="B236" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C236" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D236" s="21" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E236" s="22" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F236" s="23"/>
       <c r="G236" s="24"/>
@@ -16413,21 +16409,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="237" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="237" spans="1:20" ht="14.25" customHeight="1">
       <c r="A237" s="20">
         <v>230</v>
       </c>
       <c r="B237" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C237" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D237" s="21" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E237" s="22" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F237" s="23"/>
       <c r="G237" s="24"/>
@@ -16447,21 +16443,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="238" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="238" spans="1:20" ht="14.25" customHeight="1">
       <c r="A238" s="20">
         <v>231</v>
       </c>
       <c r="B238" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C238" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D238" s="21" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E238" s="22" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F238" s="23"/>
       <c r="G238" s="24"/>
@@ -16481,21 +16477,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="239" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="239" spans="1:20" ht="14.25" customHeight="1">
       <c r="A239" s="20">
         <v>232</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C239" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D239" s="21" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E239" s="22" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F239" s="23"/>
       <c r="G239" s="24"/>
@@ -16515,21 +16511,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="240" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="240" spans="1:20" ht="14.25" customHeight="1">
       <c r="A240" s="20">
         <v>233</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C240" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E240" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F240" s="23"/>
       <c r="G240" s="24"/>
@@ -16549,21 +16545,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="241" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="241" spans="1:20" ht="14.25" customHeight="1">
       <c r="A241" s="20">
         <v>234</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C241" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D241" s="21" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E241" s="22" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F241" s="23"/>
       <c r="G241" s="24"/>
@@ -16583,21 +16579,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="242" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="242" spans="1:20" ht="14.25" customHeight="1">
       <c r="A242" s="20">
         <v>235</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C242" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D242" s="21" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E242" s="22" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F242" s="23"/>
       <c r="G242" s="24"/>
@@ -16617,21 +16613,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="243" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="243" spans="1:20" ht="14.25" customHeight="1">
       <c r="A243" s="20">
         <v>236</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C243" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D243" s="21" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E243" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F243" s="23"/>
       <c r="G243" s="24"/>
@@ -16651,21 +16647,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="244" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="244" spans="1:20" ht="14.25" customHeight="1">
       <c r="A244" s="20">
         <v>237</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C244" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D244" s="21" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E244" s="22" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F244" s="23"/>
       <c r="G244" s="24"/>
@@ -16685,21 +16681,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="245" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="245" spans="1:20" ht="14.25" customHeight="1">
       <c r="A245" s="20">
         <v>238</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C245" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D245" s="21" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E245" s="22" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F245" s="23"/>
       <c r="G245" s="24"/>
@@ -16719,21 +16715,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="246" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="246" spans="1:20" ht="14.25" customHeight="1">
       <c r="A246" s="20">
         <v>239</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C246" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D246" s="21" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="E246" s="22" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F246" s="23"/>
       <c r="G246" s="24"/>
@@ -16753,21 +16749,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="247" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="247" spans="1:20" ht="14.25" customHeight="1">
       <c r="A247" s="20">
         <v>240</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C247" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D247" s="21" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="E247" s="22" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="F247" s="23"/>
       <c r="G247" s="24"/>
@@ -16787,21 +16783,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="248" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="248" spans="1:20" ht="14.25" customHeight="1">
       <c r="A248" s="20">
         <v>241</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C248" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D248" s="21" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E248" s="22" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F248" s="23"/>
       <c r="G248" s="24"/>
@@ -16821,21 +16817,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="249" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="249" spans="1:20" ht="14.25" customHeight="1">
       <c r="A249" s="20">
         <v>242</v>
       </c>
       <c r="B249" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C249" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D249" s="21" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E249" s="22" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F249" s="23"/>
       <c r="G249" s="24"/>
@@ -16855,21 +16851,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="250" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="250" spans="1:20" ht="14.25" customHeight="1">
       <c r="A250" s="20">
         <v>243</v>
       </c>
       <c r="B250" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C250" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D250" s="21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E250" s="22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F250" s="23"/>
       <c r="G250" s="24"/>
@@ -16889,21 +16885,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="251" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="251" spans="1:20" ht="14.25" customHeight="1">
       <c r="A251" s="20">
         <v>244</v>
       </c>
       <c r="B251" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C251" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D251" s="21" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E251" s="22" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F251" s="23"/>
       <c r="G251" s="24"/>
@@ -16923,21 +16919,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="252" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="252" spans="1:20" ht="14.25" customHeight="1">
       <c r="A252" s="20">
         <v>245</v>
       </c>
       <c r="B252" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C252" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D252" s="21" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E252" s="22" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="F252" s="23"/>
       <c r="G252" s="24"/>
@@ -16957,21 +16953,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="253" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="253" spans="1:20" ht="14.25" customHeight="1">
       <c r="A253" s="20">
         <v>246</v>
       </c>
       <c r="B253" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C253" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="E253" s="22" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="F253" s="23"/>
       <c r="G253" s="24"/>
@@ -16991,21 +16987,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="254" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="254" spans="1:20" ht="14.25" customHeight="1">
       <c r="A254" s="20">
         <v>247</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C254" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D254" s="21" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E254" s="22" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F254" s="23"/>
       <c r="G254" s="24"/>
@@ -17025,21 +17021,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="255" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="255" spans="1:20" ht="14.25" customHeight="1">
       <c r="A255" s="20">
         <v>248</v>
       </c>
       <c r="B255" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C255" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D255" s="21" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E255" s="22" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F255" s="23"/>
       <c r="G255" s="24"/>
@@ -17059,21 +17055,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="256" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="256" spans="1:20" ht="14.25" customHeight="1">
       <c r="A256" s="20">
         <v>249</v>
       </c>
       <c r="B256" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C256" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D256" s="21" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E256" s="22" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F256" s="23"/>
       <c r="G256" s="24"/>
@@ -17093,21 +17089,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="257" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="257" spans="1:20" ht="14.25" customHeight="1">
       <c r="A257" s="20">
         <v>250</v>
       </c>
       <c r="B257" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C257" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D257" s="21" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E257" s="22" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F257" s="23"/>
       <c r="G257" s="24"/>
@@ -17127,21 +17123,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="258" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="258" spans="1:20" ht="14.25" customHeight="1">
       <c r="A258" s="20">
         <v>251</v>
       </c>
       <c r="B258" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C258" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D258" s="21" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E258" s="22" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F258" s="23"/>
       <c r="G258" s="24"/>
@@ -17161,21 +17157,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="259" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="259" spans="1:20" ht="14.25" customHeight="1">
       <c r="A259" s="20">
         <v>252</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C259" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E259" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F259" s="23"/>
       <c r="G259" s="24"/>
@@ -17195,21 +17191,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="260" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="260" spans="1:20" ht="14.25" customHeight="1">
       <c r="A260" s="20">
         <v>253</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C260" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D260" s="21" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="E260" s="22" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F260" s="23"/>
       <c r="G260" s="24"/>
@@ -17229,21 +17225,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="261" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="261" spans="1:20" ht="14.25" customHeight="1">
       <c r="A261" s="20">
         <v>254</v>
       </c>
       <c r="B261" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C261" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D261" s="21" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E261" s="22" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F261" s="23"/>
       <c r="G261" s="24"/>
@@ -17263,21 +17259,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="262" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="262" spans="1:20" ht="14.25" customHeight="1">
       <c r="A262" s="20">
         <v>255</v>
       </c>
       <c r="B262" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C262" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D262" s="21" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E262" s="22" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F262" s="23"/>
       <c r="G262" s="24"/>
@@ -17297,21 +17293,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="263" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="263" spans="1:20" ht="14.25" customHeight="1">
       <c r="A263" s="20">
         <v>256</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C263" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D263" s="21" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E263" s="22" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F263" s="23"/>
       <c r="G263" s="24"/>
@@ -17331,21 +17327,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="264" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="264" spans="1:20" ht="14.25" customHeight="1">
       <c r="A264" s="20">
         <v>257</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C264" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D264" s="21" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E264" s="22" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="F264" s="23"/>
       <c r="G264" s="24"/>
@@ -17365,21 +17361,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="265" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="265" spans="1:20" ht="14.25" customHeight="1">
       <c r="A265" s="20">
         <v>258</v>
       </c>
       <c r="B265" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C265" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D265" s="21" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E265" s="22" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F265" s="23"/>
       <c r="G265" s="24"/>
@@ -17399,21 +17395,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="266" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="266" spans="1:20" ht="14.25" customHeight="1">
       <c r="A266" s="20">
         <v>259</v>
       </c>
       <c r="B266" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C266" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D266" s="21" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="F266" s="23"/>
       <c r="G266" s="24"/>
@@ -17433,21 +17429,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="267" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="267" spans="1:20" ht="14.25" customHeight="1">
       <c r="A267" s="20">
         <v>260</v>
       </c>
       <c r="B267" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C267" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D267" s="21" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E267" s="22" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="F267" s="23"/>
       <c r="G267" s="24"/>
@@ -17467,21 +17463,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="268" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="268" spans="1:20" ht="14.25" customHeight="1">
       <c r="A268" s="20">
         <v>261</v>
       </c>
       <c r="B268" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C268" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D268" s="21" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E268" s="22" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F268" s="23"/>
       <c r="G268" s="24"/>
@@ -17501,21 +17497,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="269" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="269" spans="1:20" ht="14.25" customHeight="1">
       <c r="A269" s="20">
         <v>262</v>
       </c>
       <c r="B269" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C269" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D269" s="21" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E269" s="22" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="F269" s="23"/>
       <c r="G269" s="24"/>
@@ -17535,21 +17531,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="270" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="270" spans="1:20" ht="14.25" customHeight="1">
       <c r="A270" s="20">
         <v>263</v>
       </c>
       <c r="B270" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C270" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D270" s="21" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E270" s="22" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F270" s="23"/>
       <c r="G270" s="24"/>
@@ -17569,21 +17565,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="271" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="271" spans="1:20" ht="14.25" customHeight="1">
       <c r="A271" s="20">
         <v>264</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C271" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D271" s="21" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E271" s="22" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F271" s="23"/>
       <c r="G271" s="24"/>
@@ -17603,21 +17599,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="272" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="272" spans="1:20" ht="14.25" customHeight="1">
       <c r="A272" s="20">
         <v>265</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C272" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D272" s="21" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E272" s="22" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F272" s="23"/>
       <c r="G272" s="24"/>
@@ -17637,21 +17633,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="273" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="273" spans="1:20" ht="14.25" customHeight="1">
       <c r="A273" s="20">
         <v>266</v>
       </c>
       <c r="B273" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C273" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D273" s="21" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E273" s="22" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F273" s="23"/>
       <c r="G273" s="24"/>
@@ -17671,21 +17667,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="274" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="274" spans="1:20" ht="14.25" customHeight="1">
       <c r="A274" s="20">
         <v>267</v>
       </c>
       <c r="B274" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C274" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D274" s="21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E274" s="22" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F274" s="23"/>
       <c r="G274" s="24"/>
@@ -17705,21 +17701,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="275" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="275" spans="1:20" ht="14.25" customHeight="1">
       <c r="A275" s="20">
         <v>268</v>
       </c>
       <c r="B275" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C275" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D275" s="21" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E275" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F275" s="23"/>
       <c r="G275" s="24"/>
@@ -17739,21 +17735,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="276" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="276" spans="1:20" ht="14.25" customHeight="1">
       <c r="A276" s="20">
         <v>269</v>
       </c>
       <c r="B276" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C276" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D276" s="21" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E276" s="22" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F276" s="23"/>
       <c r="G276" s="24"/>
@@ -17773,21 +17769,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="277" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="277" spans="1:20" ht="14.25" customHeight="1">
       <c r="A277" s="20">
         <v>270</v>
       </c>
       <c r="B277" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C277" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D277" s="21" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E277" s="22" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F277" s="23"/>
       <c r="G277" s="24"/>
@@ -17807,21 +17803,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="278" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="278" spans="1:20" ht="14.25" customHeight="1">
       <c r="A278" s="20">
         <v>271</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C278" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="E278" s="22" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F278" s="23"/>
       <c r="G278" s="24"/>
@@ -17841,21 +17837,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="279" spans="1:20" ht="237" hidden="1" customHeight="1">
+    <row r="279" spans="1:20" ht="237" customHeight="1">
       <c r="A279" s="20">
         <v>272</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C279" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D279" s="21" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E279" s="22" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F279" s="23"/>
       <c r="G279" s="24"/>
@@ -17875,21 +17871,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="280" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="280" spans="1:20" ht="14.25" customHeight="1">
       <c r="A280" s="20">
         <v>273</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C280" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D280" s="21" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E280" s="22" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="F280" s="23"/>
       <c r="G280" s="24"/>
@@ -17909,21 +17905,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="281" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="281" spans="1:20" ht="14.25" customHeight="1">
       <c r="A281" s="20">
         <v>274</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C281" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D281" s="21" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="E281" s="22" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F281" s="23"/>
       <c r="G281" s="24"/>
@@ -17943,21 +17939,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="282" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="282" spans="1:20" ht="14.25" customHeight="1">
       <c r="A282" s="20">
         <v>275</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C282" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D282" s="21" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E282" s="22" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F282" s="23"/>
       <c r="G282" s="24"/>
@@ -17977,21 +17973,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="283" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="283" spans="1:20" ht="14.25" customHeight="1">
       <c r="A283" s="20">
         <v>276</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C283" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D283" s="21" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E283" s="22" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F283" s="23"/>
       <c r="G283" s="24"/>
@@ -18011,21 +18007,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="284" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="284" spans="1:20" ht="14.25" customHeight="1">
       <c r="A284" s="20">
         <v>277</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C284" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D284" s="21" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="E284" s="22" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="F284" s="23"/>
       <c r="G284" s="24"/>
@@ -18045,21 +18041,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="285" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="285" spans="1:20" ht="14.25" customHeight="1">
       <c r="A285" s="20">
         <v>278</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C285" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D285" s="21" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E285" s="22" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F285" s="23"/>
       <c r="G285" s="24"/>
@@ -18079,21 +18075,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="286" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="286" spans="1:20" ht="14.25" customHeight="1">
       <c r="A286" s="20">
         <v>279</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C286" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D286" s="21" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E286" s="22" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="F286" s="23"/>
       <c r="G286" s="24"/>
@@ -18113,21 +18109,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="287" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="287" spans="1:20" ht="14.25" customHeight="1">
       <c r="A287" s="20">
         <v>280</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C287" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D287" s="21" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="E287" s="22" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="F287" s="23"/>
       <c r="G287" s="24"/>
@@ -18147,21 +18143,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="288" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="288" spans="1:20" ht="14.25" customHeight="1">
       <c r="A288" s="20">
         <v>281</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C288" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D288" s="21" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E288" s="22" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F288" s="23"/>
       <c r="G288" s="24"/>
@@ -18181,21 +18177,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="289" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="289" spans="1:20" ht="14.25" customHeight="1">
       <c r="A289" s="20">
         <v>282</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C289" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D289" s="21" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="E289" s="22" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F289" s="23"/>
       <c r="G289" s="24"/>
@@ -18215,21 +18211,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="290" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="290" spans="1:20" ht="14.25" customHeight="1">
       <c r="A290" s="20">
         <v>283</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C290" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D290" s="21" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="E290" s="22" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="F290" s="23"/>
       <c r="G290" s="24"/>
@@ -18249,21 +18245,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="291" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="291" spans="1:20" ht="14.25" customHeight="1">
       <c r="A291" s="20">
         <v>284</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C291" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D291" s="21" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E291" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F291" s="23"/>
       <c r="G291" s="24"/>
@@ -18283,21 +18279,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="292" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="292" spans="1:20" ht="14.25" customHeight="1">
       <c r="A292" s="20">
         <v>285</v>
       </c>
       <c r="B292" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C292" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E292" s="22" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="F292" s="23"/>
       <c r="G292" s="24"/>
@@ -18317,21 +18313,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="293" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="293" spans="1:20" ht="14.25" customHeight="1">
       <c r="A293" s="20">
         <v>286</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C293" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D293" s="21" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E293" s="22" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F293" s="23"/>
       <c r="G293" s="24"/>
@@ -18351,21 +18347,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="294" spans="1:20" ht="263.25" hidden="1" customHeight="1">
+    <row r="294" spans="1:20" ht="263.25" customHeight="1">
       <c r="A294" s="20">
         <v>287</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C294" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D294" s="21" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E294" s="22" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F294" s="23"/>
       <c r="G294" s="24"/>
@@ -18385,21 +18381,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="295" spans="1:20" ht="264" hidden="1" customHeight="1">
+    <row r="295" spans="1:20" ht="264" customHeight="1">
       <c r="A295" s="20">
         <v>288</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C295" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D295" s="21" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="E295" s="22" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="F295" s="23"/>
       <c r="G295" s="24"/>
@@ -18419,21 +18415,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="296" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="296" spans="1:20" ht="14.25" customHeight="1">
       <c r="A296" s="20">
         <v>289</v>
       </c>
       <c r="B296" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C296" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D296" s="21" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E296" s="22" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F296" s="23"/>
       <c r="G296" s="24"/>
@@ -18453,21 +18449,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="297" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="297" spans="1:20" ht="14.25" customHeight="1">
       <c r="A297" s="20">
         <v>290</v>
       </c>
       <c r="B297" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C297" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D297" s="21" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="E297" s="22" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F297" s="23"/>
       <c r="G297" s="24"/>
@@ -18487,21 +18483,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="298" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="298" spans="1:20" ht="14.25" customHeight="1">
       <c r="A298" s="20">
         <v>291</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C298" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D298" s="21" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="E298" s="22" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="F298" s="23"/>
       <c r="G298" s="24"/>
@@ -18521,21 +18517,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="299" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="299" spans="1:20" ht="14.25" customHeight="1">
       <c r="A299" s="20">
         <v>292</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C299" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D299" s="21" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E299" s="22" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F299" s="23"/>
       <c r="G299" s="24"/>
@@ -18555,21 +18551,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="300" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="300" spans="1:20" ht="14.25" customHeight="1">
       <c r="A300" s="20">
         <v>293</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C300" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D300" s="21" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="E300" s="22" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="F300" s="23"/>
       <c r="G300" s="24"/>
@@ -18589,21 +18585,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="301" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="301" spans="1:20" ht="14.25" customHeight="1">
       <c r="A301" s="20">
         <v>294</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C301" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D301" s="21" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E301" s="22" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F301" s="23"/>
       <c r="G301" s="24"/>
@@ -18623,21 +18619,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="302" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="302" spans="1:20" ht="14.25" customHeight="1">
       <c r="A302" s="20">
         <v>295</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C302" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D302" s="21" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E302" s="22" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F302" s="23"/>
       <c r="G302" s="24"/>
@@ -18657,21 +18653,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="303" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="303" spans="1:20" ht="14.25" customHeight="1">
       <c r="A303" s="20">
         <v>296</v>
       </c>
       <c r="B303" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C303" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D303" s="21" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E303" s="22" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="F303" s="23"/>
       <c r="G303" s="24"/>
@@ -18691,21 +18687,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="304" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="304" spans="1:20" ht="14.25" customHeight="1">
       <c r="A304" s="20">
         <v>297</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C304" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D304" s="21" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E304" s="22" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F304" s="23"/>
       <c r="G304" s="24"/>
@@ -18725,21 +18721,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="305" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="305" spans="1:20" ht="14.25" customHeight="1">
       <c r="A305" s="20">
         <v>298</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C305" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D305" s="21" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E305" s="22" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F305" s="23"/>
       <c r="G305" s="24"/>
@@ -18759,21 +18755,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="306" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="306" spans="1:20" ht="14.25" customHeight="1">
       <c r="A306" s="20">
         <v>299</v>
       </c>
       <c r="B306" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C306" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D306" s="21" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E306" s="22" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="F306" s="23"/>
       <c r="G306" s="24"/>
@@ -18793,21 +18789,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="307" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="307" spans="1:20" ht="14.25" customHeight="1">
       <c r="A307" s="20">
         <v>300</v>
       </c>
       <c r="B307" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C307" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D307" s="21" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="E307" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F307" s="23"/>
       <c r="G307" s="24"/>
@@ -18827,21 +18823,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="308" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="308" spans="1:20" ht="14.25" customHeight="1">
       <c r="A308" s="20">
         <v>301</v>
       </c>
       <c r="B308" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C308" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D308" s="21" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E308" s="22" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F308" s="23"/>
       <c r="G308" s="24"/>
@@ -18861,21 +18857,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="309" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="309" spans="1:20" ht="14.25" customHeight="1">
       <c r="A309" s="20">
         <v>302</v>
       </c>
       <c r="B309" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C309" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D309" s="21" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="E309" s="22" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="F309" s="23"/>
       <c r="G309" s="24"/>
@@ -18895,21 +18891,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="310" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="310" spans="1:20" ht="14.25" customHeight="1">
       <c r="A310" s="20">
         <v>303</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C310" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D310" s="21" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E310" s="22" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F310" s="23"/>
       <c r="G310" s="24"/>
@@ -18929,21 +18925,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="311" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="311" spans="1:20" ht="14.25" customHeight="1">
       <c r="A311" s="20">
         <v>304</v>
       </c>
       <c r="B311" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C311" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D311" s="21" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E311" s="22" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F311" s="23"/>
       <c r="G311" s="24"/>
@@ -18963,21 +18959,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="312" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="312" spans="1:20" ht="14.25" customHeight="1">
       <c r="A312" s="20">
         <v>305</v>
       </c>
       <c r="B312" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C312" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D312" s="21" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="E312" s="22" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="F312" s="23"/>
       <c r="G312" s="24"/>
@@ -18997,21 +18993,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="313" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="313" spans="1:20" ht="14.25" customHeight="1">
       <c r="A313" s="20">
         <v>306</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C313" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D313" s="21" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E313" s="22" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F313" s="23"/>
       <c r="G313" s="24"/>
@@ -19031,21 +19027,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="314" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="314" spans="1:20" ht="14.25" customHeight="1">
       <c r="A314" s="20">
         <v>307</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C314" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D314" s="21" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E314" s="22" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="F314" s="23"/>
       <c r="G314" s="24"/>
@@ -19065,21 +19061,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="315" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="315" spans="1:20" ht="14.25" customHeight="1">
       <c r="A315" s="20">
         <v>308</v>
       </c>
       <c r="B315" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C315" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D315" s="21" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E315" s="22" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="F315" s="23"/>
       <c r="G315" s="24"/>
@@ -19099,21 +19095,21 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="316" spans="1:20" ht="14.25" customHeight="1">
       <c r="A316" s="20">
         <v>309</v>
       </c>
       <c r="B316" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C316" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D316" s="21" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E316" s="22" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F316" s="23"/>
       <c r="G316" s="24"/>
@@ -19133,21 +19129,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="317" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="317" spans="1:20" ht="14.25" customHeight="1">
       <c r="A317" s="20">
         <v>310</v>
       </c>
       <c r="B317" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C317" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D317" s="21" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E317" s="22" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="F317" s="23"/>
       <c r="G317" s="24"/>
@@ -19167,21 +19163,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="318" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="318" spans="1:20" ht="14.25" customHeight="1">
       <c r="A318" s="20">
         <v>311</v>
       </c>
       <c r="B318" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C318" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D318" s="21" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="E318" s="22" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F318" s="23"/>
       <c r="G318" s="24"/>
@@ -19201,21 +19197,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="319" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="319" spans="1:20" ht="14.25" customHeight="1">
       <c r="A319" s="20">
         <v>312</v>
       </c>
       <c r="B319" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C319" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D319" s="21" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E319" s="22" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F319" s="23"/>
       <c r="G319" s="24"/>
@@ -19235,21 +19231,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="320" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="320" spans="1:20" ht="14.25" customHeight="1">
       <c r="A320" s="20">
         <v>313</v>
       </c>
       <c r="B320" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C320" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D320" s="21" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E320" s="22" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="F320" s="23"/>
       <c r="G320" s="24"/>
@@ -19269,21 +19265,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="321" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="321" spans="1:20" ht="14.25" customHeight="1">
       <c r="A321" s="20">
         <v>314</v>
       </c>
       <c r="B321" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C321" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D321" s="21" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="E321" s="22" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="F321" s="23"/>
       <c r="G321" s="24"/>
@@ -19303,21 +19299,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="322" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="322" spans="1:20" ht="14.25" customHeight="1">
       <c r="A322" s="20">
         <v>315</v>
       </c>
       <c r="B322" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C322" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D322" s="21" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E322" s="22" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F322" s="23"/>
       <c r="G322" s="24"/>
@@ -19337,21 +19333,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="323" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="323" spans="1:20" ht="14.25" customHeight="1">
       <c r="A323" s="20">
         <v>316</v>
       </c>
       <c r="B323" s="21" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C323" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D323" s="21" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E323" s="22" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F323" s="23"/>
       <c r="G323" s="24"/>
@@ -19371,21 +19367,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="324" spans="1:20" ht="253.5" hidden="1" customHeight="1">
+    <row r="324" spans="1:20" ht="253.5" customHeight="1">
       <c r="A324" s="20">
         <v>317</v>
       </c>
       <c r="B324" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C324" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D324" s="21" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E324" s="22" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F324" s="23"/>
       <c r="G324" s="24"/>
@@ -19405,21 +19401,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="325" spans="1:20" ht="282.75" hidden="1" customHeight="1">
+    <row r="325" spans="1:20" ht="282.75" customHeight="1">
       <c r="A325" s="20">
         <v>318</v>
       </c>
       <c r="B325" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C325" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D325" s="21" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E325" s="22" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="F325" s="23"/>
       <c r="G325" s="24"/>
@@ -19439,21 +19435,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="326" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="326" spans="1:20" ht="14.25" customHeight="1">
       <c r="A326" s="20">
         <v>319</v>
       </c>
       <c r="B326" s="21" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C326" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D326" s="21" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="E326" s="22" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="F326" s="23"/>
       <c r="G326" s="24"/>
@@ -19473,21 +19469,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="327" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="327" spans="1:20" ht="242.25" customHeight="1">
       <c r="A327" s="20">
         <v>320</v>
       </c>
       <c r="B327" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C327" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D327" s="21" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E327" s="22" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F327" s="23"/>
       <c r="G327" s="24"/>
@@ -19507,21 +19503,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="328" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="328" spans="1:20" ht="242.25" customHeight="1">
       <c r="A328" s="20">
         <v>321</v>
       </c>
       <c r="B328" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C328" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D328" s="21" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E328" s="22" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="F328" s="23"/>
       <c r="G328" s="24"/>
@@ -19541,21 +19537,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="329" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="329" spans="1:20" ht="315" customHeight="1">
       <c r="A329" s="20">
         <v>322</v>
       </c>
       <c r="B329" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C329" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D329" s="21" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="E329" s="22" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="F329" s="23"/>
       <c r="G329" s="24"/>
@@ -19575,21 +19571,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="330" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="330" spans="1:20" ht="259.5" customHeight="1">
       <c r="A330" s="20">
         <v>323</v>
       </c>
       <c r="B330" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C330" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D330" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E330" s="22" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F330" s="23"/>
       <c r="G330" s="24"/>
@@ -19609,21 +19605,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="331" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="331" spans="1:20" ht="242.25" customHeight="1">
       <c r="A331" s="20">
         <v>324</v>
       </c>
       <c r="B331" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C331" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D331" s="21" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E331" s="22" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="F331" s="23"/>
       <c r="G331" s="24"/>
@@ -19643,21 +19639,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="332" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="332" spans="1:20" ht="242.25" customHeight="1">
       <c r="A332" s="20">
         <v>325</v>
       </c>
       <c r="B332" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C332" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D332" s="21" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="E332" s="22" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F332" s="23"/>
       <c r="G332" s="24"/>
@@ -19677,21 +19673,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="333" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="333" spans="1:20" ht="315" customHeight="1">
       <c r="A333" s="20">
         <v>326</v>
       </c>
       <c r="B333" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C333" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D333" s="21" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E333" s="22" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F333" s="23"/>
       <c r="G333" s="24"/>
@@ -19711,21 +19707,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="334" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="334" spans="1:20" ht="259.5" customHeight="1">
       <c r="A334" s="20">
         <v>327</v>
       </c>
       <c r="B334" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C334" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D334" s="21" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E334" s="22" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="F334" s="23"/>
       <c r="G334" s="24"/>
@@ -19745,21 +19741,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="335" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="335" spans="1:20" ht="242.25" customHeight="1">
       <c r="A335" s="20">
         <v>328</v>
       </c>
       <c r="B335" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C335" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D335" s="21" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="E335" s="22" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="F335" s="23"/>
       <c r="G335" s="24"/>
@@ -19779,21 +19775,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="336" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="336" spans="1:20" ht="242.25" customHeight="1">
       <c r="A336" s="20">
         <v>329</v>
       </c>
       <c r="B336" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C336" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D336" s="21" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E336" s="22" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F336" s="23"/>
       <c r="G336" s="24"/>
@@ -19813,21 +19809,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="337" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="337" spans="1:20" ht="315" customHeight="1">
       <c r="A337" s="20">
         <v>330</v>
       </c>
       <c r="B337" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C337" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D337" s="21" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E337" s="22" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="F337" s="23"/>
       <c r="G337" s="24"/>
@@ -19847,21 +19843,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="338" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="338" spans="1:20" ht="259.5" customHeight="1">
       <c r="A338" s="20">
         <v>331</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C338" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D338" s="21" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="E338" s="22" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="F338" s="23"/>
       <c r="G338" s="24"/>
@@ -19881,21 +19877,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="339" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="339" spans="1:20" ht="242.25" customHeight="1">
       <c r="A339" s="20">
         <v>332</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C339" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D339" s="21" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E339" s="22" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F339" s="23"/>
       <c r="G339" s="24"/>
@@ -19915,21 +19911,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="340" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="340" spans="1:20" ht="242.25" customHeight="1">
       <c r="A340" s="20">
         <v>333</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C340" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D340" s="21" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E340" s="22" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="F340" s="23"/>
       <c r="G340" s="24"/>
@@ -19949,21 +19945,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="341" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="341" spans="1:20" ht="315" customHeight="1">
       <c r="A341" s="20">
         <v>334</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C341" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D341" s="21" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E341" s="22" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="F341" s="23"/>
       <c r="G341" s="24"/>
@@ -19983,21 +19979,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="342" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="342" spans="1:20" ht="259.5" customHeight="1">
       <c r="A342" s="20">
         <v>335</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C342" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D342" s="21" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E342" s="22" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F342" s="23"/>
       <c r="G342" s="24"/>
@@ -20017,21 +20013,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="343" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="343" spans="1:20" ht="242.25" customHeight="1">
       <c r="A343" s="20">
         <v>336</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C343" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D343" s="21" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="E343" s="22" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="F343" s="23"/>
       <c r="G343" s="24"/>
@@ -20051,21 +20047,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="344" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="344" spans="1:20" ht="242.25" customHeight="1">
       <c r="A344" s="20">
         <v>337</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C344" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D344" s="21" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="E344" s="22" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="F344" s="23"/>
       <c r="G344" s="24"/>
@@ -20085,21 +20081,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="345" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="345" spans="1:20" ht="315" customHeight="1">
       <c r="A345" s="20">
         <v>338</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C345" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D345" s="21" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E345" s="22" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F345" s="23"/>
       <c r="G345" s="24"/>
@@ -20119,21 +20115,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="346" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="346" spans="1:20" ht="259.5" customHeight="1">
       <c r="A346" s="20">
         <v>339</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C346" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D346" s="21" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E346" s="22" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="F346" s="23"/>
       <c r="G346" s="24"/>
@@ -20153,21 +20149,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="347" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="347" spans="1:20" ht="242.25" customHeight="1">
       <c r="A347" s="20">
         <v>340</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C347" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D347" s="21" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="E347" s="22" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="F347" s="23"/>
       <c r="G347" s="24"/>
@@ -20187,21 +20183,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="348" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="348" spans="1:20" ht="242.25" customHeight="1">
       <c r="A348" s="20">
         <v>341</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C348" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D348" s="21" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E348" s="22" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F348" s="23"/>
       <c r="G348" s="24"/>
@@ -20221,21 +20217,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="349" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="349" spans="1:20" ht="315" customHeight="1">
       <c r="A349" s="20">
         <v>342</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C349" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D349" s="21" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E349" s="22" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="F349" s="23"/>
       <c r="G349" s="24"/>
@@ -20255,21 +20251,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="350" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="350" spans="1:20" ht="259.5" customHeight="1">
       <c r="A350" s="20">
         <v>343</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C350" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D350" s="21" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="E350" s="22" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="F350" s="23"/>
       <c r="G350" s="24"/>
@@ -20289,21 +20285,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="351" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="351" spans="1:20" ht="242.25" customHeight="1">
       <c r="A351" s="20">
         <v>344</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C351" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D351" s="21" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E351" s="22" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F351" s="23"/>
       <c r="G351" s="24"/>
@@ -20323,21 +20319,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="352" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="352" spans="1:20" ht="242.25" customHeight="1">
       <c r="A352" s="20">
         <v>345</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C352" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D352" s="21" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="E352" s="22" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="F352" s="23"/>
       <c r="G352" s="24"/>
@@ -20357,21 +20353,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="353" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="353" spans="1:20" ht="315" customHeight="1">
       <c r="A353" s="20">
         <v>346</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C353" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D353" s="21" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="E353" s="22" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="F353" s="23"/>
       <c r="G353" s="24"/>
@@ -20391,21 +20387,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="354" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="354" spans="1:20" ht="259.5" customHeight="1">
       <c r="A354" s="20">
         <v>347</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C354" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D354" s="21" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E354" s="22" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F354" s="23"/>
       <c r="G354" s="24"/>
@@ -20425,21 +20421,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="355" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="355" spans="1:20" ht="242.25" customHeight="1">
       <c r="A355" s="20">
         <v>348</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C355" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D355" s="21" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="E355" s="22" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="F355" s="23"/>
       <c r="G355" s="24"/>
@@ -20459,21 +20455,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="356" spans="1:20" ht="242.25" hidden="1" customHeight="1">
+    <row r="356" spans="1:20" ht="242.25" customHeight="1">
       <c r="A356" s="20">
         <v>349</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C356" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D356" s="21" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E356" s="22" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F356" s="23"/>
       <c r="G356" s="24"/>
@@ -20493,21 +20489,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="357" spans="1:20" ht="315" hidden="1" customHeight="1">
+    <row r="357" spans="1:20" ht="315" customHeight="1">
       <c r="A357" s="20">
         <v>350</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C357" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D357" s="21" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E357" s="22" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F357" s="23"/>
       <c r="G357" s="24"/>
@@ -20527,21 +20523,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="358" spans="1:20" ht="259.5" hidden="1" customHeight="1">
+    <row r="358" spans="1:20" ht="259.5" customHeight="1">
       <c r="A358" s="20">
         <v>351</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C358" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D358" s="21" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="E358" s="22" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F358" s="23"/>
       <c r="G358" s="24"/>
@@ -20561,21 +20557,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="359" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="359" spans="1:20" ht="249.75" customHeight="1">
       <c r="A359" s="20">
         <v>352</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C359" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D359" s="21" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E359" s="22" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="F359" s="23"/>
       <c r="G359" s="24"/>
@@ -20595,21 +20591,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="360" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="360" spans="1:20" ht="249.75" customHeight="1">
       <c r="A360" s="20">
         <v>353</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C360" s="21" t="s">
         <v>48</v>
       </c>
       <c r="D360" s="21" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E360" s="22" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F360" s="23"/>
       <c r="G360" s="24"/>
@@ -20629,21 +20625,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="361" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="361" spans="1:20" ht="249.75" customHeight="1">
       <c r="A361" s="20">
         <v>354</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C361" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D361" s="21" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="E361" s="22" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="F361" s="23"/>
       <c r="G361" s="24"/>
@@ -20663,21 +20659,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="362" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="362" spans="1:20" ht="249.75" customHeight="1">
       <c r="A362" s="20">
         <v>355</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C362" s="21" t="s">
         <v>60</v>
       </c>
       <c r="D362" s="21" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E362" s="22" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F362" s="23"/>
       <c r="G362" s="24"/>
@@ -20697,21 +20693,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="363" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="363" spans="1:20" ht="249.75" customHeight="1">
       <c r="A363" s="20">
         <v>356</v>
       </c>
       <c r="B363" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C363" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D363" s="21" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E363" s="22" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F363" s="23"/>
       <c r="G363" s="24"/>
@@ -20731,21 +20727,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="364" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="364" spans="1:20" ht="249.75" customHeight="1">
       <c r="A364" s="20">
         <v>357</v>
       </c>
       <c r="B364" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C364" s="21" t="s">
         <v>78</v>
       </c>
       <c r="D364" s="21" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E364" s="22" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F364" s="23"/>
       <c r="G364" s="24"/>
@@ -20765,21 +20761,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="365" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="365" spans="1:20" ht="249.75" customHeight="1">
       <c r="A365" s="20">
         <v>358</v>
       </c>
       <c r="B365" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C365" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D365" s="21" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E365" s="22" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="F365" s="23"/>
       <c r="G365" s="24"/>
@@ -20799,21 +20795,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="366" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="366" spans="1:20" ht="249.75" customHeight="1">
       <c r="A366" s="20">
         <v>359</v>
       </c>
       <c r="B366" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C366" s="21" t="s">
         <v>87</v>
       </c>
       <c r="D366" s="21" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E366" s="22" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F366" s="23"/>
       <c r="G366" s="24"/>
@@ -20833,21 +20829,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="367" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="367" spans="1:20" ht="249.75" customHeight="1">
       <c r="A367" s="20">
         <v>360</v>
       </c>
       <c r="B367" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C367" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D367" s="21" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="E367" s="22" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="F367" s="23"/>
       <c r="G367" s="24"/>
@@ -20867,21 +20863,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="368" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="368" spans="1:20" ht="249.75" customHeight="1">
       <c r="A368" s="20">
         <v>361</v>
       </c>
       <c r="B368" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C368" s="21" t="s">
         <v>96</v>
       </c>
       <c r="D368" s="21" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="E368" s="22" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="F368" s="23"/>
       <c r="G368" s="24"/>
@@ -20901,21 +20897,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="369" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="369" spans="1:20" ht="249.75" customHeight="1">
       <c r="A369" s="20">
         <v>362</v>
       </c>
       <c r="B369" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C369" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D369" s="21" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E369" s="22" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F369" s="23"/>
       <c r="G369" s="24"/>
@@ -20935,21 +20931,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="370" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="370" spans="1:20" ht="249.75" customHeight="1">
       <c r="A370" s="20">
         <v>363</v>
       </c>
       <c r="B370" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C370" s="21" t="s">
         <v>105</v>
       </c>
       <c r="D370" s="21" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E370" s="22" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="F370" s="23"/>
       <c r="G370" s="24"/>
@@ -20969,21 +20965,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="371" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="371" spans="1:20" ht="249.75" customHeight="1">
       <c r="A371" s="20">
         <v>364</v>
       </c>
       <c r="B371" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C371" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D371" s="21" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="E371" s="22" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="F371" s="23"/>
       <c r="G371" s="24"/>
@@ -21003,21 +20999,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="372" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="372" spans="1:20" ht="249.75" customHeight="1">
       <c r="A372" s="20">
         <v>365</v>
       </c>
       <c r="B372" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C372" s="21" t="s">
         <v>129</v>
       </c>
       <c r="D372" s="21" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E372" s="22" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F372" s="23"/>
       <c r="G372" s="24"/>
@@ -21037,21 +21033,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="373" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="373" spans="1:20" ht="249.75" customHeight="1">
       <c r="A373" s="20">
         <v>366</v>
       </c>
       <c r="B373" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C373" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D373" s="21" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="E373" s="22" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="F373" s="23"/>
       <c r="G373" s="24"/>
@@ -21071,21 +21067,21 @@
         <v>116</v>
       </c>
     </row>
-    <row r="374" spans="1:20" ht="249.75" hidden="1" customHeight="1">
+    <row r="374" spans="1:20" ht="249.75" customHeight="1">
       <c r="A374" s="20">
         <v>367</v>
       </c>
       <c r="B374" s="21" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C374" s="21" t="s">
         <v>124</v>
       </c>
       <c r="D374" s="21" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="E374" s="22" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="F374" s="23"/>
       <c r="G374" s="24"/>
@@ -21105,7 +21101,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="375" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="375" spans="1:20" ht="14.25" customHeight="1">
       <c r="A375" s="20">
         <v>368</v>
       </c>
@@ -21116,10 +21112,10 @@
         <v>48</v>
       </c>
       <c r="D375" s="21" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E375" s="22" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F375" s="23"/>
       <c r="G375" s="24"/>
@@ -21150,22 +21146,22 @@
         <v>60</v>
       </c>
       <c r="D376" s="21" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="E376" s="22" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="F376" s="23">
         <v>45314</v>
       </c>
       <c r="G376" s="29" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="H376" s="29" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="I376" s="29" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="J376" s="25" t="s">
         <v>66</v>
@@ -21185,7 +21181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="377" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="377" spans="1:20" ht="14.25" customHeight="1">
       <c r="A377" s="20">
         <v>370</v>
       </c>
@@ -21196,10 +21192,10 @@
         <v>78</v>
       </c>
       <c r="D377" s="21" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="E377" s="22" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="F377" s="23"/>
       <c r="G377" s="24"/>
@@ -21219,7 +21215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="378" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="378" spans="1:20" ht="14.25" customHeight="1">
       <c r="A378" s="20">
         <v>371</v>
       </c>
@@ -21230,10 +21226,10 @@
         <v>87</v>
       </c>
       <c r="D378" s="21" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E378" s="22" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F378" s="23"/>
       <c r="G378" s="24"/>
@@ -21253,7 +21249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="379" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="379" spans="1:20" ht="14.25" customHeight="1">
       <c r="A379" s="20">
         <v>372</v>
       </c>
@@ -21264,10 +21260,10 @@
         <v>96</v>
       </c>
       <c r="D379" s="21" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="E379" s="22" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="F379" s="23"/>
       <c r="G379" s="24"/>
@@ -21287,7 +21283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="380" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="380" spans="1:20" ht="14.25" customHeight="1">
       <c r="A380" s="20">
         <v>373</v>
       </c>
@@ -21298,10 +21294,10 @@
         <v>105</v>
       </c>
       <c r="D380" s="21" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="E380" s="22" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="F380" s="23"/>
       <c r="G380" s="24"/>
@@ -21332,22 +21328,22 @@
         <v>129</v>
       </c>
       <c r="D381" s="21" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E381" s="22" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="F381" s="23">
-        <v>45314</v>
+        <v>45321</v>
       </c>
       <c r="G381" s="29" t="s">
-        <v>898</v>
+        <v>956</v>
       </c>
       <c r="H381" s="29" t="s">
-        <v>899</v>
+        <v>957</v>
       </c>
       <c r="I381" s="29" t="s">
-        <v>900</v>
+        <v>958</v>
       </c>
       <c r="J381" s="25" t="s">
         <v>66</v>
@@ -21367,7 +21363,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="382" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="382" spans="1:20" ht="14.25" customHeight="1">
       <c r="A382" s="20">
         <v>375</v>
       </c>
@@ -21378,10 +21374,10 @@
         <v>124</v>
       </c>
       <c r="D382" s="21" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E382" s="22" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="F382" s="23"/>
       <c r="G382" s="24"/>
@@ -21401,7 +21397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="383" spans="1:20" ht="14.25" hidden="1" customHeight="1">
+    <row r="383" spans="1:20" ht="14.25" customHeight="1">
       <c r="A383" s="20">
         <v>376</v>
       </c>
@@ -21412,10 +21408,10 @@
         <v>48</v>
       </c>
       <c r="D383" s="21" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E383" s="22" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="F383" s="23"/>
       <c r="G383" s="24"/>
@@ -26087,19 +26083,6 @@
       <c r="T1000" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:T383" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="VALIDAZIONE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LDO"/>
-        <filter val="RSA"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -26159,10 +26142,10 @@
         <v>28</v>
       </c>
       <c r="C1" s="32" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="D1" s="32" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1">
@@ -26170,13 +26153,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" customHeight="1">
@@ -26184,13 +26167,13 @@
         <v>60</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" customHeight="1">
@@ -26198,13 +26181,13 @@
         <v>78</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>901</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>906</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>907</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>912</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" customHeight="1">
@@ -26212,13 +26195,13 @@
         <v>87</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" customHeight="1">
@@ -26226,13 +26209,13 @@
         <v>96</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.5">
@@ -26240,13 +26223,13 @@
         <v>105</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5">
@@ -26254,13 +26237,13 @@
         <v>129</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.5">
@@ -26268,27 +26251,27 @@
         <v>124</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="43.5">
       <c r="A10" s="11" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25" customHeight="1">
@@ -26296,13 +26279,13 @@
         <v>48</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C11" s="33">
         <v>192</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25" customHeight="1">
@@ -26310,13 +26293,13 @@
         <v>60</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C12" s="33">
         <v>208</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25" customHeight="1">
@@ -26324,13 +26307,13 @@
         <v>78</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C13" s="33">
         <v>224</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25" customHeight="1">
@@ -26338,13 +26321,13 @@
         <v>87</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C14" s="33">
         <v>240</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25" customHeight="1">
@@ -26352,13 +26335,13 @@
         <v>96</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C15" s="33">
         <v>256</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="14.25" customHeight="1">
@@ -26366,13 +26349,13 @@
         <v>105</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C16" s="33">
         <v>272</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
@@ -26380,13 +26363,13 @@
         <v>129</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C17" s="33">
         <v>288</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.5" customHeight="1">
@@ -26394,13 +26377,13 @@
         <v>124</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="C18" s="33">
         <v>304</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" customHeight="1">
@@ -26408,13 +26391,13 @@
         <v>48</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C19" s="33">
         <v>193</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
@@ -26422,13 +26405,13 @@
         <v>60</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C20" s="33">
         <v>209</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
@@ -26436,13 +26419,13 @@
         <v>78</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C21" s="33">
         <v>225</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
@@ -26450,13 +26433,13 @@
         <v>87</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C22" s="33">
         <v>241</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
@@ -26464,13 +26447,13 @@
         <v>96</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C23" s="33">
         <v>257</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
@@ -26478,13 +26461,13 @@
         <v>105</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C24" s="33">
         <v>273</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
@@ -26492,13 +26475,13 @@
         <v>129</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C25" s="33">
         <v>289</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" customHeight="1">
@@ -26506,13 +26489,13 @@
         <v>124</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="C26" s="33">
         <v>305</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1">
@@ -26520,13 +26503,13 @@
         <v>48</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C27" s="33">
         <v>194</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" customHeight="1">
@@ -26534,13 +26517,13 @@
         <v>60</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C28" s="33">
         <v>210</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" customHeight="1">
@@ -26548,13 +26531,13 @@
         <v>78</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C29" s="33">
         <v>226</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" customHeight="1">
@@ -26562,13 +26545,13 @@
         <v>87</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C30" s="33">
         <v>242</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" customHeight="1">
@@ -26576,13 +26559,13 @@
         <v>96</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C31" s="33">
         <v>258</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" customHeight="1">
@@ -26590,13 +26573,13 @@
         <v>105</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C32" s="33">
         <v>274</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" customHeight="1">
@@ -26604,13 +26587,13 @@
         <v>129</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C33" s="33">
         <v>290</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" customHeight="1">
@@ -26618,13 +26601,13 @@
         <v>124</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="C34" s="33">
         <v>306</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" customHeight="1">
@@ -26632,7 +26615,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C35" s="33">
         <v>195</v>
@@ -26646,7 +26629,7 @@
         <v>60</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C36" s="33">
         <v>211</v>
@@ -26660,7 +26643,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C37" s="33">
         <v>227</v>
@@ -26674,7 +26657,7 @@
         <v>87</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C38" s="33">
         <v>243</v>
@@ -26688,7 +26671,7 @@
         <v>96</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C39" s="33">
         <v>259</v>
@@ -26702,7 +26685,7 @@
         <v>105</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C40" s="33">
         <v>275</v>
@@ -26716,7 +26699,7 @@
         <v>129</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C41" s="33">
         <v>291</v>
@@ -26730,7 +26713,7 @@
         <v>124</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="C42" s="33">
         <v>307</v>
@@ -26744,7 +26727,7 @@
         <v>48</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C43" s="33">
         <v>196</v>
@@ -26758,7 +26741,7 @@
         <v>60</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C44" s="33">
         <v>212</v>
@@ -26772,7 +26755,7 @@
         <v>78</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C45" s="33">
         <v>228</v>
@@ -26786,7 +26769,7 @@
         <v>87</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C46" s="33">
         <v>244</v>
@@ -26800,7 +26783,7 @@
         <v>96</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C47" s="33">
         <v>260</v>
@@ -26814,7 +26797,7 @@
         <v>105</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C48" s="33">
         <v>276</v>
@@ -26828,7 +26811,7 @@
         <v>129</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C49" s="33">
         <v>292</v>
@@ -26842,7 +26825,7 @@
         <v>124</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C50" s="33">
         <v>308</v>
@@ -27838,7 +27821,7 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>70</v>

--- a/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/PHI/1.67/PHI accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111GRUPPOGPI00/GPI_SPA/PHI/1.67/PHI accreditamento-checklist_V8.1.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u01113\Desktop\GatewayInLocale\A1#111GRUPPOGPI00\GPI_SPA\PHI\1.67\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522B5644-C035-4875-8CF3-6AC888C1395A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB239697-1F49-4054-BD32-15DCC2BC304C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4921,13 +4921,13 @@
     <t>2.16.840.1.113883.2.9.4.1.1.5f041cfbecec5b10c587a3a136cdd97d80e23d9ad49c68046bfa46e85d79d76a.1d971544e7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
-    <t>2.16.840.1.113883.2.9.4.1.1.1c62eb2861500bbb89bbfb3afce9839ea5e79f68db77b96066f4720e4b51e5e9.ed8b04408a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-01-30T17:00:27.189Z</t>
-  </si>
-  <si>
-    <t>45efd99d86d38659</t>
+    <t>2.16.840.1.113883.2.9.4.1.1.1c62eb2861500bbb89bbfb3afce9839ea5e79f68db77b96066f4720e4b51e5e9.481de2f9d1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ff66d5589b010c3e</t>
+  </si>
+  <si>
+    <t>2024-02-01T10:04:18.267Z</t>
   </si>
 </sst>
 </file>
@@ -7841,10 +7841,10 @@
   <dimension ref="A1:T1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -10434,13 +10434,13 @@
         <v>209</v>
       </c>
       <c r="F73" s="23">
-        <v>45321</v>
+        <v>45323</v>
       </c>
       <c r="G73" s="29" t="s">
+        <v>961</v>
+      </c>
+      <c r="H73" s="29" t="s">
         <v>960</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>961</v>
       </c>
       <c r="I73" s="29" t="s">
         <v>959</v>
@@ -26083,6 +26083,7 @@
       <c r="T1000" s="13"/>
     </row>
   </sheetData>
+  <autoFilter ref="A9:T383" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
